--- a/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1895123028192103</v>
+        <v>0.1895123028192245</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.216619749697216</v>
+        <v>0.2166197496972302</v>
       </c>
       <c r="E2">
-        <v>0.03105660170201752</v>
+        <v>0.03105660170201929</v>
       </c>
       <c r="F2">
         <v>5.808501045766292</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.225672623357255</v>
+        <v>0.2256726233572692</v>
       </c>
       <c r="I2">
-        <v>0.01426651568441795</v>
+        <v>0.01426651568439219</v>
       </c>
       <c r="J2">
-        <v>5.132861379237028</v>
+        <v>5.132861379236999</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1663843513654655</v>
+        <v>0.1663843513654513</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1811615390384276</v>
+        <v>0.1811615390386265</v>
       </c>
       <c r="E3">
-        <v>0.02846659164134913</v>
+        <v>0.02846659164134024</v>
       </c>
       <c r="F3">
-        <v>4.94656792289976</v>
+        <v>4.946567922899789</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2455949621903795</v>
+        <v>0.2455949621903724</v>
       </c>
       <c r="I3">
-        <v>0.01470893159202458</v>
+        <v>0.014708931592045</v>
       </c>
       <c r="J3">
-        <v>4.355306046525698</v>
+        <v>4.355306046525726</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.645917944365593</v>
+        <v>2.645917944365578</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1520583678802012</v>
+        <v>0.1520583678802296</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1610371453832187</v>
+        <v>0.1610371453829771</v>
       </c>
       <c r="E4">
-        <v>0.02695624121293339</v>
+        <v>0.0269562412129547</v>
       </c>
       <c r="F4">
-        <v>4.451868633807578</v>
+        <v>4.451868633807607</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.2590104390246175</v>
+        <v>0.259010439024614</v>
       </c>
       <c r="I4">
-        <v>0.01505091074299791</v>
+        <v>0.01505091074297571</v>
       </c>
       <c r="J4">
-        <v>3.89759729292237</v>
+        <v>3.897597292922342</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.368538270533961</v>
+        <v>2.368538270533975</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.146191429938213</v>
+        <v>0.1461914299381846</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1531703944017977</v>
+        <v>0.1531703944017124</v>
       </c>
       <c r="E5">
         <v>0.02635601553502109</v>
       </c>
       <c r="F5">
-        <v>4.257352201021121</v>
+        <v>4.257352201021092</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0.2647477233923876</v>
       </c>
       <c r="I5">
-        <v>0.01520598406407592</v>
+        <v>0.01520598406410301</v>
       </c>
       <c r="J5">
         <v>3.715017795718836</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1452155435041647</v>
+        <v>0.1452155435042073</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1518822775469317</v>
+        <v>0.1518822775471023</v>
       </c>
       <c r="E6">
-        <v>0.0262571502103599</v>
+        <v>0.02625715021036967</v>
       </c>
       <c r="F6">
         <v>4.225439481521391</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.2657160221514445</v>
+        <v>0.265716022151441</v>
       </c>
       <c r="I6">
-        <v>0.01523263222550364</v>
+        <v>0.01523263222545213</v>
       </c>
       <c r="J6">
-        <v>3.68491275906311</v>
+        <v>3.684912759063138</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.239718394018169</v>
+        <v>2.239718394018141</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1519793586787586</v>
+        <v>0.151979358678787</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1609297924909896</v>
+        <v>0.1609297924911317</v>
       </c>
       <c r="E7">
-        <v>0.02694809013946387</v>
+        <v>0.02694809013954025</v>
       </c>
       <c r="F7">
-        <v>4.449218546597308</v>
+        <v>4.449218546597365</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2590867516591473</v>
+        <v>0.2590867516591437</v>
       </c>
       <c r="I7">
-        <v>0.01505294082737674</v>
+        <v>0.01505294082737629</v>
       </c>
       <c r="J7">
-        <v>3.895120199789545</v>
+        <v>3.895120199789602</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.367037653319798</v>
+        <v>2.367037653319812</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2039978213162357</v>
+        <v>0.2039978213162215</v>
       </c>
       <c r="E8">
-        <v>0.03014364337773756</v>
+        <v>0.03014364337782105</v>
       </c>
       <c r="F8">
-        <v>5.503059536955078</v>
+        <v>5.503059536955107</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0.2322782877642702</v>
       </c>
       <c r="I8">
-        <v>0.01440314707880042</v>
+        <v>0.01440314707879242</v>
       </c>
       <c r="J8">
         <v>4.859984310439273</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.951959698843083</v>
+        <v>2.951959698843112</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2384361101445762</v>
+        <v>0.2384361101446046</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3064251773249964</v>
+        <v>0.3064251773247832</v>
       </c>
       <c r="E9">
-        <v>0.03735704578502208</v>
+        <v>0.03735704578501498</v>
       </c>
       <c r="F9">
         <v>7.940786458553504</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1906787474660625</v>
+        <v>0.1906787474660732</v>
       </c>
       <c r="I9">
-        <v>0.01380363177278632</v>
+        <v>0.01380363177272681</v>
       </c>
       <c r="J9">
-        <v>6.970172937883746</v>
+        <v>6.970172937883831</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.232864834550753</v>
+        <v>4.232864834550782</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.279187506915477</v>
+        <v>0.2791875069155196</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4029573689304726</v>
+        <v>0.4029573689306858</v>
       </c>
       <c r="E10">
-        <v>0.04393881155861123</v>
+        <v>0.04393881155863788</v>
       </c>
       <c r="F10">
-        <v>10.15942127529257</v>
+        <v>10.15942127529249</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0.1699623476353729</v>
       </c>
       <c r="I10">
-        <v>0.01400967895967575</v>
+        <v>0.01400967895963134</v>
       </c>
       <c r="J10">
-        <v>8.78162866068709</v>
+        <v>8.781628660687034</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.332652213233686</v>
+        <v>5.3326522132337</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,22 +760,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4557135807015271</v>
+        <v>0.4557135807014987</v>
       </c>
       <c r="E11">
-        <v>0.04752403884590706</v>
+        <v>0.04752403884586975</v>
       </c>
       <c r="F11">
-        <v>11.34225020297885</v>
+        <v>11.34225020297896</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.1638890160427771</v>
+        <v>0.1638890160427735</v>
       </c>
       <c r="I11">
-        <v>0.01433490696229534</v>
+        <v>0.0143349069622829</v>
       </c>
       <c r="J11">
         <v>9.713847017671668</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.898212741496494</v>
+        <v>5.898212741496508</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3041642054864298</v>
+        <v>0.3041642054864013</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4776130221941486</v>
+        <v>0.4776130221937365</v>
       </c>
       <c r="E12">
-        <v>0.04901802267178823</v>
+        <v>0.04901802267176336</v>
       </c>
       <c r="F12">
-        <v>11.82733355375331</v>
+        <v>11.82733355375325</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.1622495561412443</v>
+        <v>0.1622495561412585</v>
       </c>
       <c r="I12">
-        <v>0.01450479516729253</v>
+        <v>0.01450479516727032</v>
       </c>
       <c r="J12">
-        <v>10.090216247467</v>
+        <v>10.09021624746703</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -836,31 +836,31 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4727959124386558</v>
+        <v>0.4727959124382437</v>
       </c>
       <c r="E13">
-        <v>0.04868896098022368</v>
+        <v>0.04868896098021125</v>
       </c>
       <c r="F13">
-        <v>11.72092606058027</v>
+        <v>11.72092606058018</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1625691974238634</v>
+        <v>0.1625691974238599</v>
       </c>
       <c r="I13">
-        <v>0.01446582146137132</v>
+        <v>0.01446582146138375</v>
       </c>
       <c r="J13">
-        <v>10.007938617029</v>
+        <v>10.00793861702903</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.076531044823696</v>
+        <v>6.076531044823682</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2979205115052537</v>
+        <v>0.2979205115051542</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4574714630378054</v>
+        <v>0.4574714630382601</v>
       </c>
       <c r="E14">
-        <v>0.04764378723563034</v>
+        <v>0.04764378723563567</v>
       </c>
       <c r="F14">
-        <v>11.38131493580684</v>
+        <v>11.38131493580676</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0.163739482526239</v>
       </c>
       <c r="I14">
-        <v>0.01434784033504322</v>
+        <v>0.01434784033500058</v>
       </c>
       <c r="J14">
-        <v>9.7442800891952</v>
+        <v>9.744280089195172</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.91666798797273</v>
+        <v>5.916667987972716</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2949805846515972</v>
+        <v>0.2949805846515403</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4483615556480487</v>
+        <v>0.4483615556474092</v>
       </c>
       <c r="E15">
-        <v>0.04702349336730194</v>
+        <v>0.04702349336731615</v>
       </c>
       <c r="F15">
-        <v>11.1786279188963</v>
+        <v>11.17862791889638</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0.1645494475357339</v>
       </c>
       <c r="I15">
-        <v>0.01428219626841543</v>
+        <v>0.01428219626840299</v>
       </c>
       <c r="J15">
-        <v>9.586139271812442</v>
+        <v>9.586139271812499</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.820761965847382</v>
+        <v>5.820761965847439</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2779909263705491</v>
+        <v>0.2779909263706486</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3997345200990594</v>
+        <v>0.3997345200990736</v>
       </c>
       <c r="E16">
-        <v>0.04372004323549206</v>
+        <v>0.04372004323551693</v>
       </c>
       <c r="F16">
-        <v>10.08649930040673</v>
+        <v>10.08649930040676</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0.1704397350923088</v>
       </c>
       <c r="I16">
-        <v>0.01399406556534721</v>
+        <v>0.01399406556531524</v>
       </c>
       <c r="J16">
-        <v>8.723448622965606</v>
+        <v>8.723448622965634</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.297342088375188</v>
+        <v>5.297342088375203</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.267462030373423</v>
+        <v>0.2674620303732809</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -991,28 +991,28 @@
         <v>0.3725209308223754</v>
       </c>
       <c r="E17">
-        <v>0.04187191473536522</v>
+        <v>0.04187191473541141</v>
       </c>
       <c r="F17">
-        <v>9.467641994387321</v>
+        <v>9.467641994387378</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1750102658414399</v>
+        <v>0.1750102658414505</v>
       </c>
       <c r="I17">
-        <v>0.01388403555677264</v>
+        <v>0.01388403555676732</v>
       </c>
       <c r="J17">
-        <v>8.226183277820979</v>
+        <v>8.226183277820923</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.995498397366461</v>
+        <v>4.995498397366489</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2613734923596951</v>
+        <v>0.2613734923596098</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3576475824881982</v>
+        <v>0.3576475824886103</v>
       </c>
       <c r="E18">
-        <v>0.04086029159324767</v>
+        <v>0.04086029159327254</v>
       </c>
       <c r="F18">
         <v>9.127033784608642</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1779400953472603</v>
+        <v>0.1779400953472638</v>
       </c>
       <c r="I18">
-        <v>0.01384145336942844</v>
+        <v>0.01384145336945508</v>
       </c>
       <c r="J18">
         <v>7.949716153564424</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2593069130562498</v>
+        <v>0.2593069130562213</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3527314669106971</v>
+        <v>0.3527314669108961</v>
       </c>
       <c r="E19">
-        <v>0.04052552671036125</v>
+        <v>0.04052552671040921</v>
       </c>
       <c r="F19">
-        <v>9.014077489994776</v>
+        <v>9.014077489994833</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0.1789798068222659</v>
       </c>
       <c r="I19">
-        <v>0.01383029291535909</v>
+        <v>0.01383029291532978</v>
       </c>
       <c r="J19">
-        <v>7.857578279922194</v>
+        <v>7.857578279922308</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2685863464285347</v>
+        <v>0.2685863464285205</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3753337021718295</v>
+        <v>0.3753337021717584</v>
       </c>
       <c r="E20">
-        <v>0.04206306567990303</v>
+        <v>0.04206306567991192</v>
       </c>
       <c r="F20">
-        <v>9.531865876176369</v>
+        <v>9.531865876176539</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.174491585921146</v>
+        <v>0.1744915859211211</v>
       </c>
       <c r="I20">
-        <v>0.01389353124217418</v>
+        <v>0.01389353124217774</v>
       </c>
       <c r="J20">
-        <v>8.278087415174497</v>
+        <v>8.278087415174582</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.027008129316243</v>
+        <v>5.027008129316272</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2993274164511064</v>
+        <v>0.2993274164512059</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4619131153933012</v>
+        <v>0.4619131153935001</v>
       </c>
       <c r="E21">
-        <v>0.04794648115545641</v>
+        <v>0.04794648115548839</v>
       </c>
       <c r="F21">
         <v>11.47992116685768</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.1633758434399226</v>
+        <v>0.1633758434399191</v>
       </c>
       <c r="I21">
-        <v>0.01438107721951454</v>
+        <v>0.01438107721951631</v>
       </c>
       <c r="J21">
-        <v>9.82100147266695</v>
+        <v>9.821001472666978</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.963190846400195</v>
+        <v>5.963190846400181</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3189507095487158</v>
+        <v>0.3189507095487301</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5304076300245271</v>
+        <v>0.5304076300247118</v>
       </c>
       <c r="E22">
-        <v>0.05264615879113421</v>
+        <v>0.05264615879110934</v>
       </c>
       <c r="F22">
-        <v>12.98280712325635</v>
+        <v>12.98280712325646</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.1601456954779827</v>
+        <v>0.1601456954779685</v>
       </c>
       <c r="I22">
-        <v>0.01498605832359168</v>
+        <v>0.01498605832356148</v>
       </c>
       <c r="J22">
-        <v>10.97389295388126</v>
+        <v>10.97389295388135</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3085329058648227</v>
+        <v>0.3085329058647375</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.492408445611531</v>
+        <v>0.4924084456113462</v>
       </c>
       <c r="E23">
-        <v>0.05003051904727229</v>
+        <v>0.0500305190472492</v>
       </c>
       <c r="F23">
-        <v>12.15312707951279</v>
+        <v>12.15312707951276</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.1614066788598514</v>
+        <v>0.1614066788598407</v>
       </c>
       <c r="I23">
-        <v>0.01462990476655701</v>
+        <v>0.01462990476660941</v>
       </c>
       <c r="J23">
-        <v>10.34116523674905</v>
+        <v>10.34116523674902</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.278505837468288</v>
+        <v>6.278505837468316</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2680781517150166</v>
+        <v>0.2680781517150024</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3740596853705256</v>
+        <v>0.3740596853707387</v>
       </c>
       <c r="E24">
-        <v>0.04197649108128942</v>
+        <v>0.04197649108126811</v>
       </c>
       <c r="F24">
         <v>9.502783767833307</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.1747251516246493</v>
+        <v>0.1747251516246351</v>
       </c>
       <c r="I24">
-        <v>0.01388917472434503</v>
+        <v>0.01388917472437257</v>
       </c>
       <c r="J24">
-        <v>8.254592728892391</v>
+        <v>8.254592728892362</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.012745170252629</v>
+        <v>5.012745170252614</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2231999030370133</v>
+        <v>0.2231999030370986</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2759607965317485</v>
+        <v>0.2759607965317059</v>
       </c>
       <c r="E25">
-        <v>0.03524972879436916</v>
+        <v>0.03524972879433363</v>
       </c>
       <c r="F25">
-        <v>7.225213662102647</v>
+        <v>7.225213662102703</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0.2004957970991796</v>
       </c>
       <c r="I25">
-        <v>0.0138741662934434</v>
+        <v>0.01387416629343186</v>
       </c>
       <c r="J25">
-        <v>6.365557800201998</v>
+        <v>6.365557800202083</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.865738303383452</v>
+        <v>3.865738303383466</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1895123028192245</v>
+        <v>0.1895123028192103</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2166197496972302</v>
+        <v>0.216619749697216</v>
       </c>
       <c r="E2">
-        <v>0.03105660170201929</v>
+        <v>0.03105660170201752</v>
       </c>
       <c r="F2">
         <v>5.808501045766292</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2256726233572692</v>
+        <v>0.225672623357255</v>
       </c>
       <c r="I2">
-        <v>0.01426651568439219</v>
+        <v>0.01426651568441795</v>
       </c>
       <c r="J2">
-        <v>5.132861379236999</v>
+        <v>5.132861379237028</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1663843513654513</v>
+        <v>0.1663843513654655</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1811615390386265</v>
+        <v>0.1811615390384276</v>
       </c>
       <c r="E3">
-        <v>0.02846659164134024</v>
+        <v>0.02846659164134913</v>
       </c>
       <c r="F3">
-        <v>4.946567922899789</v>
+        <v>4.94656792289976</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2455949621903724</v>
+        <v>0.2455949621903795</v>
       </c>
       <c r="I3">
-        <v>0.014708931592045</v>
+        <v>0.01470893159202458</v>
       </c>
       <c r="J3">
-        <v>4.355306046525726</v>
+        <v>4.355306046525698</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.645917944365578</v>
+        <v>2.645917944365593</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1520583678802296</v>
+        <v>0.1520583678802012</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1610371453829771</v>
+        <v>0.1610371453832187</v>
       </c>
       <c r="E4">
-        <v>0.0269562412129547</v>
+        <v>0.02695624121293339</v>
       </c>
       <c r="F4">
-        <v>4.451868633807607</v>
+        <v>4.451868633807578</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.259010439024614</v>
+        <v>0.2590104390246175</v>
       </c>
       <c r="I4">
-        <v>0.01505091074297571</v>
+        <v>0.01505091074299791</v>
       </c>
       <c r="J4">
-        <v>3.897597292922342</v>
+        <v>3.89759729292237</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.368538270533975</v>
+        <v>2.368538270533961</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1461914299381846</v>
+        <v>0.146191429938213</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1531703944017124</v>
+        <v>0.1531703944017977</v>
       </c>
       <c r="E5">
         <v>0.02635601553502109</v>
       </c>
       <c r="F5">
-        <v>4.257352201021092</v>
+        <v>4.257352201021121</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0.2647477233923876</v>
       </c>
       <c r="I5">
-        <v>0.01520598406410301</v>
+        <v>0.01520598406407592</v>
       </c>
       <c r="J5">
         <v>3.715017795718836</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1452155435042073</v>
+        <v>0.1452155435041647</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1518822775471023</v>
+        <v>0.1518822775469317</v>
       </c>
       <c r="E6">
-        <v>0.02625715021036967</v>
+        <v>0.0262571502103599</v>
       </c>
       <c r="F6">
         <v>4.225439481521391</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.265716022151441</v>
+        <v>0.2657160221514445</v>
       </c>
       <c r="I6">
-        <v>0.01523263222545213</v>
+        <v>0.01523263222550364</v>
       </c>
       <c r="J6">
-        <v>3.684912759063138</v>
+        <v>3.68491275906311</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.239718394018141</v>
+        <v>2.239718394018169</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.151979358678787</v>
+        <v>0.1519793586787586</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1609297924911317</v>
+        <v>0.1609297924909896</v>
       </c>
       <c r="E7">
-        <v>0.02694809013954025</v>
+        <v>0.02694809013946387</v>
       </c>
       <c r="F7">
-        <v>4.449218546597365</v>
+        <v>4.449218546597308</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2590867516591437</v>
+        <v>0.2590867516591473</v>
       </c>
       <c r="I7">
-        <v>0.01505294082737629</v>
+        <v>0.01505294082737674</v>
       </c>
       <c r="J7">
-        <v>3.895120199789602</v>
+        <v>3.895120199789545</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.367037653319812</v>
+        <v>2.367037653319798</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2039978213162215</v>
+        <v>0.2039978213162357</v>
       </c>
       <c r="E8">
-        <v>0.03014364337782105</v>
+        <v>0.03014364337773756</v>
       </c>
       <c r="F8">
-        <v>5.503059536955107</v>
+        <v>5.503059536955078</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0.2322782877642702</v>
       </c>
       <c r="I8">
-        <v>0.01440314707879242</v>
+        <v>0.01440314707880042</v>
       </c>
       <c r="J8">
         <v>4.859984310439273</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.951959698843112</v>
+        <v>2.951959698843083</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2384361101446046</v>
+        <v>0.2384361101445762</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3064251773247832</v>
+        <v>0.3064251773249964</v>
       </c>
       <c r="E9">
-        <v>0.03735704578501498</v>
+        <v>0.03735704578502208</v>
       </c>
       <c r="F9">
         <v>7.940786458553504</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1906787474660732</v>
+        <v>0.1906787474660625</v>
       </c>
       <c r="I9">
-        <v>0.01380363177272681</v>
+        <v>0.01380363177278632</v>
       </c>
       <c r="J9">
-        <v>6.970172937883831</v>
+        <v>6.970172937883746</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.232864834550782</v>
+        <v>4.232864834550753</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2791875069155196</v>
+        <v>0.279187506915477</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4029573689306858</v>
+        <v>0.4029573689304726</v>
       </c>
       <c r="E10">
-        <v>0.04393881155863788</v>
+        <v>0.04393881155861123</v>
       </c>
       <c r="F10">
-        <v>10.15942127529249</v>
+        <v>10.15942127529257</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0.1699623476353729</v>
       </c>
       <c r="I10">
-        <v>0.01400967895963134</v>
+        <v>0.01400967895967575</v>
       </c>
       <c r="J10">
-        <v>8.781628660687034</v>
+        <v>8.78162866068709</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.3326522132337</v>
+        <v>5.332652213233686</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,22 +760,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4557135807014987</v>
+        <v>0.4557135807015271</v>
       </c>
       <c r="E11">
-        <v>0.04752403884586975</v>
+        <v>0.04752403884590706</v>
       </c>
       <c r="F11">
-        <v>11.34225020297896</v>
+        <v>11.34225020297885</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.1638890160427735</v>
+        <v>0.1638890160427771</v>
       </c>
       <c r="I11">
-        <v>0.0143349069622829</v>
+        <v>0.01433490696229534</v>
       </c>
       <c r="J11">
         <v>9.713847017671668</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.898212741496508</v>
+        <v>5.898212741496494</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3041642054864013</v>
+        <v>0.3041642054864298</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4776130221937365</v>
+        <v>0.4776130221941486</v>
       </c>
       <c r="E12">
-        <v>0.04901802267176336</v>
+        <v>0.04901802267178823</v>
       </c>
       <c r="F12">
-        <v>11.82733355375325</v>
+        <v>11.82733355375331</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.1622495561412585</v>
+        <v>0.1622495561412443</v>
       </c>
       <c r="I12">
-        <v>0.01450479516727032</v>
+        <v>0.01450479516729253</v>
       </c>
       <c r="J12">
-        <v>10.09021624746703</v>
+        <v>10.090216247467</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -836,31 +836,31 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4727959124382437</v>
+        <v>0.4727959124386558</v>
       </c>
       <c r="E13">
-        <v>0.04868896098021125</v>
+        <v>0.04868896098022368</v>
       </c>
       <c r="F13">
-        <v>11.72092606058018</v>
+        <v>11.72092606058027</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1625691974238599</v>
+        <v>0.1625691974238634</v>
       </c>
       <c r="I13">
-        <v>0.01446582146138375</v>
+        <v>0.01446582146137132</v>
       </c>
       <c r="J13">
-        <v>10.00793861702903</v>
+        <v>10.007938617029</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.076531044823682</v>
+        <v>6.076531044823696</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2979205115051542</v>
+        <v>0.2979205115052537</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4574714630382601</v>
+        <v>0.4574714630378054</v>
       </c>
       <c r="E14">
-        <v>0.04764378723563567</v>
+        <v>0.04764378723563034</v>
       </c>
       <c r="F14">
-        <v>11.38131493580676</v>
+        <v>11.38131493580684</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0.163739482526239</v>
       </c>
       <c r="I14">
-        <v>0.01434784033500058</v>
+        <v>0.01434784033504322</v>
       </c>
       <c r="J14">
-        <v>9.744280089195172</v>
+        <v>9.7442800891952</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.916667987972716</v>
+        <v>5.91666798797273</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2949805846515403</v>
+        <v>0.2949805846515972</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4483615556474092</v>
+        <v>0.4483615556480487</v>
       </c>
       <c r="E15">
-        <v>0.04702349336731615</v>
+        <v>0.04702349336730194</v>
       </c>
       <c r="F15">
-        <v>11.17862791889638</v>
+        <v>11.1786279188963</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0.1645494475357339</v>
       </c>
       <c r="I15">
-        <v>0.01428219626840299</v>
+        <v>0.01428219626841543</v>
       </c>
       <c r="J15">
-        <v>9.586139271812499</v>
+        <v>9.586139271812442</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.820761965847439</v>
+        <v>5.820761965847382</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2779909263706486</v>
+        <v>0.2779909263705491</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3997345200990736</v>
+        <v>0.3997345200990594</v>
       </c>
       <c r="E16">
-        <v>0.04372004323551693</v>
+        <v>0.04372004323549206</v>
       </c>
       <c r="F16">
-        <v>10.08649930040676</v>
+        <v>10.08649930040673</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0.1704397350923088</v>
       </c>
       <c r="I16">
-        <v>0.01399406556531524</v>
+        <v>0.01399406556534721</v>
       </c>
       <c r="J16">
-        <v>8.723448622965634</v>
+        <v>8.723448622965606</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.297342088375203</v>
+        <v>5.297342088375188</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2674620303732809</v>
+        <v>0.267462030373423</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -991,28 +991,28 @@
         <v>0.3725209308223754</v>
       </c>
       <c r="E17">
-        <v>0.04187191473541141</v>
+        <v>0.04187191473536522</v>
       </c>
       <c r="F17">
-        <v>9.467641994387378</v>
+        <v>9.467641994387321</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1750102658414505</v>
+        <v>0.1750102658414399</v>
       </c>
       <c r="I17">
-        <v>0.01388403555676732</v>
+        <v>0.01388403555677264</v>
       </c>
       <c r="J17">
-        <v>8.226183277820923</v>
+        <v>8.226183277820979</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.995498397366489</v>
+        <v>4.995498397366461</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2613734923596098</v>
+        <v>0.2613734923596951</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3576475824886103</v>
+        <v>0.3576475824881982</v>
       </c>
       <c r="E18">
-        <v>0.04086029159327254</v>
+        <v>0.04086029159324767</v>
       </c>
       <c r="F18">
         <v>9.127033784608642</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1779400953472638</v>
+        <v>0.1779400953472603</v>
       </c>
       <c r="I18">
-        <v>0.01384145336945508</v>
+        <v>0.01384145336942844</v>
       </c>
       <c r="J18">
         <v>7.949716153564424</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2593069130562213</v>
+        <v>0.2593069130562498</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3527314669108961</v>
+        <v>0.3527314669106971</v>
       </c>
       <c r="E19">
-        <v>0.04052552671040921</v>
+        <v>0.04052552671036125</v>
       </c>
       <c r="F19">
-        <v>9.014077489994833</v>
+        <v>9.014077489994776</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0.1789798068222659</v>
       </c>
       <c r="I19">
-        <v>0.01383029291532978</v>
+        <v>0.01383029291535909</v>
       </c>
       <c r="J19">
-        <v>7.857578279922308</v>
+        <v>7.857578279922194</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2685863464285205</v>
+        <v>0.2685863464285347</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3753337021717584</v>
+        <v>0.3753337021718295</v>
       </c>
       <c r="E20">
-        <v>0.04206306567991192</v>
+        <v>0.04206306567990303</v>
       </c>
       <c r="F20">
-        <v>9.531865876176539</v>
+        <v>9.531865876176369</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.1744915859211211</v>
+        <v>0.174491585921146</v>
       </c>
       <c r="I20">
-        <v>0.01389353124217774</v>
+        <v>0.01389353124217418</v>
       </c>
       <c r="J20">
-        <v>8.278087415174582</v>
+        <v>8.278087415174497</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.027008129316272</v>
+        <v>5.027008129316243</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2993274164512059</v>
+        <v>0.2993274164511064</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4619131153935001</v>
+        <v>0.4619131153933012</v>
       </c>
       <c r="E21">
-        <v>0.04794648115548839</v>
+        <v>0.04794648115545641</v>
       </c>
       <c r="F21">
         <v>11.47992116685768</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.1633758434399191</v>
+        <v>0.1633758434399226</v>
       </c>
       <c r="I21">
-        <v>0.01438107721951631</v>
+        <v>0.01438107721951454</v>
       </c>
       <c r="J21">
-        <v>9.821001472666978</v>
+        <v>9.82100147266695</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.963190846400181</v>
+        <v>5.963190846400195</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3189507095487301</v>
+        <v>0.3189507095487158</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5304076300247118</v>
+        <v>0.5304076300245271</v>
       </c>
       <c r="E22">
-        <v>0.05264615879110934</v>
+        <v>0.05264615879113421</v>
       </c>
       <c r="F22">
-        <v>12.98280712325646</v>
+        <v>12.98280712325635</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.1601456954779685</v>
+        <v>0.1601456954779827</v>
       </c>
       <c r="I22">
-        <v>0.01498605832356148</v>
+        <v>0.01498605832359168</v>
       </c>
       <c r="J22">
-        <v>10.97389295388135</v>
+        <v>10.97389295388126</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3085329058647375</v>
+        <v>0.3085329058648227</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4924084456113462</v>
+        <v>0.492408445611531</v>
       </c>
       <c r="E23">
-        <v>0.0500305190472492</v>
+        <v>0.05003051904727229</v>
       </c>
       <c r="F23">
-        <v>12.15312707951276</v>
+        <v>12.15312707951279</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.1614066788598407</v>
+        <v>0.1614066788598514</v>
       </c>
       <c r="I23">
-        <v>0.01462990476660941</v>
+        <v>0.01462990476655701</v>
       </c>
       <c r="J23">
-        <v>10.34116523674902</v>
+        <v>10.34116523674905</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.278505837468316</v>
+        <v>6.278505837468288</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2680781517150024</v>
+        <v>0.2680781517150166</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3740596853707387</v>
+        <v>0.3740596853705256</v>
       </c>
       <c r="E24">
-        <v>0.04197649108126811</v>
+        <v>0.04197649108128942</v>
       </c>
       <c r="F24">
         <v>9.502783767833307</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.1747251516246351</v>
+        <v>0.1747251516246493</v>
       </c>
       <c r="I24">
-        <v>0.01388917472437257</v>
+        <v>0.01388917472434503</v>
       </c>
       <c r="J24">
-        <v>8.254592728892362</v>
+        <v>8.254592728892391</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.012745170252614</v>
+        <v>5.012745170252629</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2231999030370986</v>
+        <v>0.2231999030370133</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2759607965317059</v>
+        <v>0.2759607965317485</v>
       </c>
       <c r="E25">
-        <v>0.03524972879433363</v>
+        <v>0.03524972879436916</v>
       </c>
       <c r="F25">
-        <v>7.225213662102703</v>
+        <v>7.225213662102647</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0.2004957970991796</v>
       </c>
       <c r="I25">
-        <v>0.01387416629343186</v>
+        <v>0.0138741662934434</v>
       </c>
       <c r="J25">
-        <v>6.365557800202083</v>
+        <v>6.365557800201998</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.865738303383466</v>
+        <v>3.865738303383452</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1895123028192103</v>
+        <v>0.1897024202232416</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.216619749697216</v>
+        <v>0.2130928964745777</v>
       </c>
       <c r="E2">
-        <v>0.03105660170201752</v>
+        <v>0.0280915501909913</v>
       </c>
       <c r="F2">
-        <v>5.808501045766292</v>
+        <v>5.769054096734408</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007036798953143553</v>
       </c>
       <c r="H2">
-        <v>0.225672623357255</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01426651568441795</v>
+        <v>0.2319762935517105</v>
       </c>
       <c r="J2">
-        <v>5.132861379237028</v>
+        <v>0.01359661530764456</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>5.068292769364035</v>
       </c>
       <c r="L2">
-        <v>3.117504154315412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>3.085442733834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1663843513654655</v>
+        <v>0.166576099335245</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1811615390384276</v>
+        <v>0.1789377306855755</v>
       </c>
       <c r="E3">
-        <v>0.02846659164134913</v>
+        <v>0.02558147915540054</v>
       </c>
       <c r="F3">
-        <v>4.94656792289976</v>
+        <v>4.925839166127787</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007237158675498501</v>
       </c>
       <c r="H3">
-        <v>0.2455949621903795</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01470893159202458</v>
+        <v>0.2523689835575134</v>
       </c>
       <c r="J3">
-        <v>4.355306046525698</v>
+        <v>0.01400185399765608</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4.301996514277761</v>
       </c>
       <c r="L3">
-        <v>2.645917944365593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.620102606093099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1520583678802012</v>
+        <v>0.1522533012111609</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1610371453832187</v>
+        <v>0.1595753986789674</v>
       </c>
       <c r="E4">
-        <v>0.02695624121293339</v>
+        <v>0.02411488147001783</v>
       </c>
       <c r="F4">
-        <v>4.451868633807578</v>
+        <v>4.441955149193006</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007360059828775752</v>
       </c>
       <c r="H4">
-        <v>0.2590104390246175</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01505091074299791</v>
+        <v>0.2660644555866227</v>
       </c>
       <c r="J4">
-        <v>3.89759729292237</v>
+        <v>0.01431953103185224</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.850775129122468</v>
       </c>
       <c r="L4">
-        <v>2.368538270533961</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.346307345199492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.146191429938213</v>
+        <v>0.146388090310495</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1531703944017977</v>
+        <v>0.1520126408562845</v>
       </c>
       <c r="E5">
-        <v>0.02635601553502109</v>
+        <v>0.02353145661287392</v>
       </c>
       <c r="F5">
-        <v>4.257352201021121</v>
+        <v>4.251725333071988</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007410286732566355</v>
       </c>
       <c r="H5">
-        <v>0.2647477233923876</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01520598406407592</v>
+        <v>0.2719144938028553</v>
       </c>
       <c r="J5">
-        <v>3.715017795718836</v>
+        <v>0.01446436495010062</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.670763167798725</v>
       </c>
       <c r="L5">
-        <v>2.257949539109788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.237134044611565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1452155435041647</v>
+        <v>0.1454125135785347</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1518822775469317</v>
+        <v>0.1507746789004187</v>
       </c>
       <c r="E6">
-        <v>0.0262571502103599</v>
+        <v>0.02343532645087443</v>
       </c>
       <c r="F6">
-        <v>4.225439481521391</v>
+        <v>4.220518316071747</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007418639990910596</v>
       </c>
       <c r="H6">
-        <v>0.2657160221514445</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01523263222550364</v>
+        <v>0.2729014552151661</v>
       </c>
       <c r="J6">
-        <v>3.68491275906311</v>
+        <v>0.01448929338489524</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.6410806173362</v>
       </c>
       <c r="L6">
-        <v>2.239718394018169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2.219135626878725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1519793586787586</v>
+        <v>0.1521743137023179</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1609297924909896</v>
+        <v>0.1594721686937675</v>
       </c>
       <c r="E7">
-        <v>0.02694809013946387</v>
+        <v>0.02410696079362395</v>
       </c>
       <c r="F7">
-        <v>4.449218546597308</v>
+        <v>4.439363305584692</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007360736420416991</v>
       </c>
       <c r="H7">
-        <v>0.2590867516591473</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01505294082737674</v>
+        <v>0.266142293323675</v>
       </c>
       <c r="J7">
-        <v>3.895120199789545</v>
+        <v>0.01432142434670203</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.848332936186011</v>
       </c>
       <c r="L7">
-        <v>2.367037653319798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.344825980237943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1815654961923485</v>
+        <v>0.1817556397450772</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2039978213162357</v>
+        <v>0.2009302478437007</v>
       </c>
       <c r="E8">
-        <v>0.03014364337773756</v>
+        <v>0.02720747916672472</v>
       </c>
       <c r="F8">
-        <v>5.503059536955078</v>
+        <v>5.470242111008133</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007106024818237522</v>
       </c>
       <c r="H8">
-        <v>0.2322782877642702</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01440314707880042</v>
+        <v>0.2387465621406406</v>
       </c>
       <c r="J8">
-        <v>4.859984310439273</v>
+        <v>0.01372075908516646</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4.799407893880897</v>
       </c>
       <c r="L8">
-        <v>2.951959698843083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.922116448793815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2384361101445762</v>
+        <v>0.2386419952106706</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3064251773249964</v>
+        <v>0.2996950178997224</v>
       </c>
       <c r="E9">
-        <v>0.03735704578502208</v>
+        <v>0.03417099682353353</v>
       </c>
       <c r="F9">
-        <v>7.940786458553504</v>
+        <v>7.854171741713401</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006595105323206073</v>
       </c>
       <c r="H9">
-        <v>0.1906787474660625</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01380363177278632</v>
+        <v>0.1958682742129874</v>
       </c>
       <c r="J9">
-        <v>6.970172937883746</v>
+        <v>0.01320336067485695</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>6.877057941964864</v>
       </c>
       <c r="L9">
-        <v>4.232864834550753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>4.184845821925705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.279187506915477</v>
+        <v>0.2794388644834243</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4029573689304726</v>
+        <v>0.3927284651038718</v>
       </c>
       <c r="E10">
-        <v>0.04393881155861123</v>
+        <v>0.04047810152699327</v>
       </c>
       <c r="F10">
-        <v>10.15942127529257</v>
+        <v>10.01957477659087</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006191216153313971</v>
       </c>
       <c r="H10">
-        <v>0.1699623476353729</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01400967895967575</v>
+        <v>0.1739989919539191</v>
       </c>
       <c r="J10">
-        <v>8.78162866068709</v>
+        <v>0.01345442436527744</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>8.65599671167567</v>
       </c>
       <c r="L10">
-        <v>5.332652213233686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>5.266288898336526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2973589272166492</v>
+        <v>0.2976473944900846</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4557135807015271</v>
+        <v>0.4434661998723328</v>
       </c>
       <c r="E11">
-        <v>0.04752403884590706</v>
+        <v>0.04389209035478103</v>
       </c>
       <c r="F11">
-        <v>11.34225020297885</v>
+        <v>11.17097778383831</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005992750966201918</v>
       </c>
       <c r="H11">
-        <v>0.1638890160427771</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01433490696229534</v>
+        <v>0.1672889138256686</v>
       </c>
       <c r="J11">
-        <v>9.713847017671668</v>
+        <v>0.0137932158215861</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>9.568873286130355</v>
       </c>
       <c r="L11">
-        <v>5.898212741496494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>5.820872927306141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3041642054864298</v>
+        <v>0.3044707437093734</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4776130221941486</v>
+        <v>0.4644931689012992</v>
       </c>
       <c r="E12">
-        <v>0.04901802267178823</v>
+        <v>0.04530961930589683</v>
       </c>
       <c r="F12">
-        <v>11.82733355375331</v>
+        <v>11.64233374614747</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005914201195117079</v>
       </c>
       <c r="H12">
-        <v>0.1622495561412443</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01450479516729253</v>
+        <v>0.1653802464163903</v>
       </c>
       <c r="J12">
-        <v>10.090216247467</v>
+        <v>0.01396654775368056</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>9.936761650658411</v>
       </c>
       <c r="L12">
-        <v>6.126408518674182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>6.044243343423844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3027024872180846</v>
+        <v>0.3030049117113123</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4727959124386558</v>
+        <v>0.4598699957383872</v>
       </c>
       <c r="E13">
-        <v>0.04868896098022368</v>
+        <v>0.04499767015296463</v>
       </c>
       <c r="F13">
-        <v>11.72092606058027</v>
+        <v>11.53898471188566</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005931298629973383</v>
       </c>
       <c r="H13">
-        <v>0.1625691974238634</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01446582146137132</v>
+        <v>0.1657594242068221</v>
       </c>
       <c r="J13">
-        <v>10.007938617029</v>
+        <v>0.01392692633127712</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>9.856375189983794</v>
       </c>
       <c r="L13">
-        <v>6.076531044823696</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5.995442490595451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2979205115052537</v>
+        <v>0.2982103701392731</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4574714630378054</v>
+        <v>0.4451548910371059</v>
       </c>
       <c r="E14">
-        <v>0.04764378723563034</v>
+        <v>0.04400582615726023</v>
       </c>
       <c r="F14">
-        <v>11.38131493580684</v>
+        <v>11.20895690114858</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005986366887471973</v>
       </c>
       <c r="H14">
-        <v>0.163739482526239</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01434784033504322</v>
+        <v>0.1671179014828574</v>
       </c>
       <c r="J14">
-        <v>9.7442800891952</v>
+        <v>0.01380647283350989</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>9.598636350605403</v>
       </c>
       <c r="L14">
-        <v>5.91666798797273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5.838947217356875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2949805846515972</v>
+        <v>0.2952633431260239</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4483615556480487</v>
+        <v>0.4364020585181123</v>
       </c>
       <c r="E15">
-        <v>0.04702349336730194</v>
+        <v>0.04341646467985782</v>
       </c>
       <c r="F15">
-        <v>11.1786279188963</v>
+        <v>11.01186667305913</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006019604337763607</v>
       </c>
       <c r="H15">
-        <v>0.1645494475357339</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01428219626841543</v>
+        <v>0.1680389550997816</v>
       </c>
       <c r="J15">
-        <v>9.586139271812442</v>
+        <v>0.01373906227877875</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>9.443948398940535</v>
       </c>
       <c r="L15">
-        <v>5.820761965847382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5.745003953672636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2779909263705491</v>
+        <v>0.2782403023171582</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3997345200990594</v>
+        <v>0.3896257623241866</v>
       </c>
       <c r="E16">
-        <v>0.04372004323549206</v>
+        <v>0.04026925632816081</v>
       </c>
       <c r="F16">
-        <v>10.08649930040673</v>
+        <v>9.948507821582666</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.000620379685218374</v>
       </c>
       <c r="H16">
-        <v>0.1704397350923088</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01399406556534721</v>
+        <v>0.174514914909949</v>
       </c>
       <c r="J16">
-        <v>8.723448622965606</v>
+        <v>0.01343773855012209</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>8.598955097380468</v>
       </c>
       <c r="L16">
-        <v>5.297342088375188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>5.231623475802635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.267462030373423</v>
+        <v>0.267695955719887</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3725209308223754</v>
+        <v>0.3634151908708532</v>
       </c>
       <c r="E17">
-        <v>0.04187191473536522</v>
+        <v>0.03850268640098164</v>
       </c>
       <c r="F17">
-        <v>9.467641994387321</v>
+        <v>9.345064608744366</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006312317355850251</v>
       </c>
       <c r="H17">
-        <v>0.1750102658414399</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01388403555677264</v>
+        <v>0.1794100206868876</v>
       </c>
       <c r="J17">
-        <v>8.226183277820979</v>
+        <v>0.01331750699014655</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>8.111134812520021</v>
       </c>
       <c r="L17">
-        <v>4.995498397366461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.935122222258229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2613734923596951</v>
+        <v>0.2615999363911499</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3576475824881982</v>
+        <v>0.3490825483233664</v>
       </c>
       <c r="E18">
-        <v>0.04086029159324767</v>
+        <v>0.03753403806564037</v>
       </c>
       <c r="F18">
-        <v>9.127033784608642</v>
+        <v>9.012710782395885</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006373452275300104</v>
       </c>
       <c r="H18">
-        <v>0.1779400953472603</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01384145336942844</v>
+        <v>0.1825169780442408</v>
       </c>
       <c r="J18">
-        <v>7.949716153564424</v>
+        <v>0.0132684662049094</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>7.839714813183974</v>
       </c>
       <c r="L18">
-        <v>4.82765077191992</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4.770124481094967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2593069130562498</v>
+        <v>0.2595310334723706</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3527314669106971</v>
+        <v>0.3443441812805617</v>
       </c>
       <c r="E19">
-        <v>0.04052552671036125</v>
+        <v>0.03721324211882227</v>
       </c>
       <c r="F19">
-        <v>9.014077489994776</v>
+        <v>8.902459331229039</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006393959264623232</v>
       </c>
       <c r="H19">
-        <v>0.1789798068222659</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01383029291535909</v>
+        <v>0.1836152521120731</v>
       </c>
       <c r="J19">
-        <v>7.857578279922194</v>
+        <v>0.0132550304736041</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>7.749229158701525</v>
       </c>
       <c r="L19">
-        <v>4.771708752407264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4.715114608502233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2685863464285347</v>
+        <v>0.2688217629560938</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3753337021718295</v>
+        <v>0.3661251628428488</v>
       </c>
       <c r="E20">
-        <v>0.04206306567990303</v>
+        <v>0.03868558656597543</v>
       </c>
       <c r="F20">
-        <v>9.531865876176369</v>
+        <v>9.407714735212608</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006300904988402638</v>
       </c>
       <c r="H20">
-        <v>0.174491585921146</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01389353124217418</v>
+        <v>0.1788578372788976</v>
       </c>
       <c r="J20">
-        <v>8.278087415174497</v>
+        <v>0.01332815311692226</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>8.162075822150342</v>
       </c>
       <c r="L20">
-        <v>5.027008129316243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.966087717906319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2993274164511064</v>
+        <v>0.2996208363059907</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4619131153933012</v>
+        <v>0.44942108413656</v>
       </c>
       <c r="E21">
-        <v>0.04794648115545641</v>
+        <v>0.04429323317678779</v>
       </c>
       <c r="F21">
-        <v>11.47992116685768</v>
+        <v>11.30480778834746</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005970298363111075</v>
       </c>
       <c r="H21">
-        <v>0.1633758434399226</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01438107721951454</v>
+        <v>0.1666998958002353</v>
       </c>
       <c r="J21">
-        <v>9.82100147266695</v>
+        <v>0.01384049075804761</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>9.67365668583372</v>
       </c>
       <c r="L21">
-        <v>5.963190846400195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5.884502681305648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3189507095487158</v>
+        <v>0.3193077114586771</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5304076300245271</v>
+        <v>0.5150750266708144</v>
       </c>
       <c r="E22">
-        <v>0.05264615879113421</v>
+        <v>0.04873814111892294</v>
       </c>
       <c r="F22">
-        <v>12.98280712325635</v>
+        <v>12.76264412916976</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005733097339119429</v>
       </c>
       <c r="H22">
-        <v>0.1601456954779827</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01498605832359168</v>
+        <v>0.1626088843446318</v>
       </c>
       <c r="J22">
-        <v>10.97389295388126</v>
+        <v>0.01445081037906881</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>10.79863097789868</v>
       </c>
       <c r="L22">
-        <v>6.661768779479814</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>6.567166414268769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3085329058648227</v>
+        <v>0.3088525790675902</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.492408445611531</v>
+        <v>0.4786852321871748</v>
       </c>
       <c r="E23">
-        <v>0.05003051904727229</v>
+        <v>0.04626846353880865</v>
       </c>
       <c r="F23">
-        <v>12.15312707951279</v>
+        <v>11.95858699047491</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005862305238353815</v>
       </c>
       <c r="H23">
-        <v>0.1614066788598514</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01462990476655701</v>
+        <v>0.1643532334994333</v>
       </c>
       <c r="J23">
-        <v>10.34116523674905</v>
+        <v>0.01409325841938802</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>10.18180558812819</v>
       </c>
       <c r="L23">
-        <v>6.278505837468288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>6.192976869793341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2680781517150166</v>
+        <v>0.2683128898151779</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3740596853705256</v>
+        <v>0.3648977307737624</v>
       </c>
       <c r="E24">
-        <v>0.04197649108128942</v>
+        <v>0.03860275403857827</v>
       </c>
       <c r="F24">
-        <v>9.502783767833307</v>
+        <v>9.379345965903013</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006306068343436541</v>
       </c>
       <c r="H24">
-        <v>0.1747251516246493</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01388917472434503</v>
+        <v>0.1791065786938901</v>
       </c>
       <c r="J24">
-        <v>8.254592728892391</v>
+        <v>0.01332327829194391</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>8.139017728543479</v>
       </c>
       <c r="L24">
-        <v>5.012745170252629</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.95207148069963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2231999030370133</v>
+        <v>0.2233974493773871</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2759607965317485</v>
+        <v>0.2703121711759024</v>
       </c>
       <c r="E25">
-        <v>0.03524972879436916</v>
+        <v>0.03214190010888629</v>
       </c>
       <c r="F25">
-        <v>7.225213662102647</v>
+        <v>7.154701387935773</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006736306277985022</v>
       </c>
       <c r="H25">
-        <v>0.2004957970991796</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.0138741662934434</v>
+        <v>0.2060550143082054</v>
       </c>
       <c r="J25">
-        <v>6.365557800201998</v>
+        <v>0.01325366912206949</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>6.282216362934946</v>
       </c>
       <c r="L25">
-        <v>3.865738303383452</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3.823200385786777</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1897024202232416</v>
+        <v>1.266037340849664</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2130928964745777</v>
+        <v>0.02359729881000661</v>
       </c>
       <c r="E2">
-        <v>0.0280915501909913</v>
+        <v>0.6675494783225133</v>
       </c>
       <c r="F2">
-        <v>5.769054096734408</v>
+        <v>2.055188966207311</v>
       </c>
       <c r="G2">
-        <v>0.0007036798953143553</v>
+        <v>0.0007699237104470113</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2319762935517105</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01359661530764456</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5.068292769364035</v>
+        <v>1.783686636698192</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4940248679464361</v>
       </c>
       <c r="M2">
-        <v>3.085442733834</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.3893222937262451</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.636581805052259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.166576099335245</v>
+        <v>1.11960134891558</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1789377306855755</v>
+        <v>0.02444678704936365</v>
       </c>
       <c r="E3">
-        <v>0.02558147915540054</v>
+        <v>0.6063913006320476</v>
       </c>
       <c r="F3">
-        <v>4.925839166127787</v>
+        <v>1.822096187480881</v>
       </c>
       <c r="G3">
-        <v>0.0007237158675498501</v>
+        <v>0.0007795146598334003</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2523689835575134</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01400185399765608</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.301996514277761</v>
+        <v>1.546148182020374</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4271033551103756</v>
       </c>
       <c r="M3">
-        <v>2.620102606093099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.340064744802298</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.457033379409978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1522533012111609</v>
+        <v>1.031224480156766</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1595753986789674</v>
+        <v>0.02510000914409005</v>
       </c>
       <c r="E4">
-        <v>0.02411488147001783</v>
+        <v>0.5691960543572634</v>
       </c>
       <c r="F4">
-        <v>4.441955149193006</v>
+        <v>1.684772468661791</v>
       </c>
       <c r="G4">
-        <v>0.0007360059828775752</v>
+        <v>0.0007855458528480685</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2660644555866227</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01431953103185224</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3.850775129122468</v>
+        <v>1.401768767964484</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3865739615662704</v>
       </c>
       <c r="M4">
-        <v>2.346307345199492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3102827653521487</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.35162241558352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.146388090310495</v>
+        <v>0.9955535294437539</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1520126408562845</v>
+        <v>0.02539645067250262</v>
       </c>
       <c r="E5">
-        <v>0.02353145661287392</v>
+        <v>0.5541059477145112</v>
       </c>
       <c r="F5">
-        <v>4.251725333071988</v>
+        <v>1.630106699765932</v>
       </c>
       <c r="G5">
-        <v>0.0007410286732566355</v>
+        <v>0.0007880416620365879</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2719144938028553</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01446436495010062</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3.670763167798725</v>
+        <v>1.34322870240058</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3701772382574831</v>
       </c>
       <c r="M5">
-        <v>2.237134044611565</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.2982476640892315</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.309748107066071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1454125135785347</v>
+        <v>0.9896499514576078</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1507746789004187</v>
+        <v>0.02544742368734276</v>
       </c>
       <c r="E6">
-        <v>0.02343532645087443</v>
+        <v>0.551603704942238</v>
       </c>
       <c r="F6">
-        <v>4.220518316071747</v>
+        <v>1.621103217685814</v>
       </c>
       <c r="G6">
-        <v>0.0007418639990910596</v>
+        <v>0.0007884584497429988</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2729014552151661</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01448929338489524</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>3.6410806173362</v>
+        <v>1.333524006130204</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3674611873952074</v>
       </c>
       <c r="M6">
-        <v>2.219135626878725</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.2962549504251726</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.302856557856785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1521743137023179</v>
+        <v>1.030742072917036</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1594721686937675</v>
+        <v>0.0251038881376644</v>
       </c>
       <c r="E7">
-        <v>0.02410696079362395</v>
+        <v>0.5689922992170864</v>
       </c>
       <c r="F7">
-        <v>4.439363305584692</v>
+        <v>1.684030188668899</v>
       </c>
       <c r="G7">
-        <v>0.0007360736420416991</v>
+        <v>0.0007855793553390568</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.266142293323675</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01432142434670203</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>3.848332936186011</v>
+        <v>1.400978171249761</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3863523735993368</v>
       </c>
       <c r="M7">
-        <v>2.344825980237943</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3101200644331925</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.351053472614851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1817556397450772</v>
+        <v>1.215200578611388</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2009302478437007</v>
+        <v>0.02386106830813617</v>
       </c>
       <c r="E8">
-        <v>0.02720747916672472</v>
+        <v>0.6463739706819212</v>
       </c>
       <c r="F8">
-        <v>5.470242111008133</v>
+        <v>1.973512647640277</v>
       </c>
       <c r="G8">
-        <v>0.0007106024818237522</v>
+        <v>0.0007732025626661428</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2387465621406406</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01372075908516646</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>4.799407893880897</v>
+        <v>1.701431275192107</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4708202520267264</v>
       </c>
       <c r="M8">
-        <v>2.922116448793815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3722328772253505</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.573585976315414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2386419952106706</v>
+        <v>1.591262278437938</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2996950178997224</v>
+        <v>0.02261493154592387</v>
       </c>
       <c r="E9">
-        <v>0.03417099682353353</v>
+        <v>0.8021087366611113</v>
       </c>
       <c r="F9">
-        <v>7.854171741713401</v>
+        <v>2.595439025039866</v>
       </c>
       <c r="G9">
-        <v>0.0006595105323206073</v>
+        <v>0.000749946293532644</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1958682742129874</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01320336067485695</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>6.877057941964864</v>
+        <v>2.306080810757607</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.6420129316468035</v>
       </c>
       <c r="M9">
-        <v>4.184845821925705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.4984623954900371</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.055102772552615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2794388644834243</v>
+        <v>1.879697166926746</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3927284651038718</v>
+        <v>0.02266344894738737</v>
       </c>
       <c r="E10">
-        <v>0.04047810152699327</v>
+        <v>0.9208728631623728</v>
       </c>
       <c r="F10">
-        <v>10.01957477659087</v>
+        <v>3.098633829821807</v>
       </c>
       <c r="G10">
-        <v>0.0006191216153313971</v>
+        <v>0.0007332961375923424</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1739989919539191</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01345442436527744</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>8.65599671167567</v>
+        <v>2.765861119650467</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.7729325270269953</v>
       </c>
       <c r="M10">
-        <v>5.266288898336526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.5951033370598111</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.447229590459472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2976473944900846</v>
+        <v>2.014434847582095</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4434661998723328</v>
+        <v>0.02296003639949973</v>
       </c>
       <c r="E11">
-        <v>0.04389209035478103</v>
+        <v>0.9763731374173403</v>
       </c>
       <c r="F11">
-        <v>11.17097778383831</v>
+        <v>3.341114220262426</v>
       </c>
       <c r="G11">
-        <v>0.0005992750966201918</v>
+        <v>0.000725767988157274</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1672889138256686</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0137932158215861</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>9.568873286130355</v>
+        <v>2.980043359286867</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.8340743974775933</v>
       </c>
       <c r="M11">
-        <v>5.820872927306141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.6402297015293357</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.636841409319857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3044707437093734</v>
+        <v>2.066049358352416</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4644931689012992</v>
+        <v>0.02311848775458003</v>
       </c>
       <c r="E12">
-        <v>0.04530961930589683</v>
+        <v>0.9976554595780556</v>
       </c>
       <c r="F12">
-        <v>11.64233374614747</v>
+        <v>3.435237715895397</v>
       </c>
       <c r="G12">
-        <v>0.0005914201195117079</v>
+        <v>0.0007229191278184413</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1653802464163903</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01396654775368056</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>9.936761650658411</v>
+        <v>3.062034742371722</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.8575011970719402</v>
       </c>
       <c r="M12">
-        <v>6.044243343423844</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.6575159865336673</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.710546202919787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3030049117113123</v>
+        <v>2.05490542263135</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4598699957383872</v>
+        <v>0.02308219105383458</v>
       </c>
       <c r="E13">
-        <v>0.04499767015296463</v>
+        <v>0.9930591578167167</v>
       </c>
       <c r="F13">
-        <v>11.53898471188566</v>
+        <v>3.414857999057801</v>
       </c>
       <c r="G13">
-        <v>0.0005931298629973383</v>
+        <v>0.0007235326807885467</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1657594242068221</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01392692633127712</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>9.856375189983794</v>
+        <v>3.044334182076028</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.8524428397163604</v>
       </c>
       <c r="M13">
-        <v>5.995442490595451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.653783738272196</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.694582830010717</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2982103701392731</v>
+        <v>2.01866880369613</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4451548910371059</v>
+        <v>0.02297210505120972</v>
       </c>
       <c r="E14">
-        <v>0.04400582615726023</v>
+        <v>0.978118381681</v>
       </c>
       <c r="F14">
-        <v>11.20895690114858</v>
+        <v>3.348809487208001</v>
       </c>
       <c r="G14">
-        <v>0.0005986366887471973</v>
+        <v>0.000725533602767503</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1671179014828574</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01380647283350989</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>9.598636350605403</v>
+        <v>2.98677007159398</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.8359959620309496</v>
       </c>
       <c r="M14">
-        <v>5.838947217356875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.6416476970121607</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.642865192167818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2952633431260239</v>
+        <v>1.996552691144871</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4364020585181123</v>
+        <v>0.02291090143032193</v>
       </c>
       <c r="E15">
-        <v>0.04341646467985782</v>
+        <v>0.9690030706578909</v>
       </c>
       <c r="F15">
-        <v>11.01186667305913</v>
+        <v>3.308663921065886</v>
       </c>
       <c r="G15">
-        <v>0.0006019604337763607</v>
+        <v>0.0007267593174086548</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1680389550997816</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01373906227877875</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>9.443948398940535</v>
+        <v>2.951630953372003</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.825958894475292</v>
       </c>
       <c r="M15">
-        <v>5.745003953672636</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.6342407786743465</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.611443806434735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2782403023171582</v>
+        <v>1.870969722542583</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3896257623241866</v>
+        <v>0.02265013331102494</v>
       </c>
       <c r="E16">
-        <v>0.04026925632816081</v>
+        <v>0.9172798142595937</v>
       </c>
       <c r="F16">
-        <v>9.948507821582666</v>
+        <v>3.083088935281125</v>
       </c>
       <c r="G16">
-        <v>0.000620379685218374</v>
+        <v>0.0007337886587491424</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.174514914909949</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01343773855012209</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>8.598955097380468</v>
+        <v>2.751978238504918</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.7689724192863991</v>
       </c>
       <c r="M16">
-        <v>5.231623475802635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.5921801543978589</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.435087583508817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.267695955719887</v>
+        <v>1.794888927729289</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3634151908708532</v>
+        <v>0.02256485274171638</v>
       </c>
       <c r="E17">
-        <v>0.03850268640098164</v>
+        <v>0.8859619775438929</v>
       </c>
       <c r="F17">
-        <v>9.345064608744366</v>
+        <v>2.948414386171862</v>
       </c>
       <c r="G17">
-        <v>0.0006312317355850251</v>
+        <v>0.0007381095901301245</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1794100206868876</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01331750699014655</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>8.111134812520021</v>
+        <v>2.630892610703285</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.7344495976173278</v>
       </c>
       <c r="M17">
-        <v>4.935122222258229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.566695800996726</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.329966125659766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2615999363911499</v>
+        <v>1.751455526001394</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3490825483233664</v>
+        <v>0.0225411786672538</v>
       </c>
       <c r="E18">
-        <v>0.03753403806564037</v>
+        <v>0.8680837893055227</v>
       </c>
       <c r="F18">
-        <v>9.012710782395885</v>
+        <v>2.87220694882015</v>
       </c>
       <c r="G18">
-        <v>0.0006373452275300104</v>
+        <v>0.0007405995371321915</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1825169780442408</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0132684662049094</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>7.839714813183974</v>
+        <v>2.561709281054206</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.714739146485357</v>
       </c>
       <c r="M18">
-        <v>4.770124481094967</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.5521453594457455</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.270540494130017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2595310334723706</v>
+        <v>1.736803355044714</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3443441812805617</v>
+        <v>0.02253733724134221</v>
       </c>
       <c r="E19">
-        <v>0.03721324211882227</v>
+        <v>0.8620522482077249</v>
       </c>
       <c r="F19">
-        <v>8.902459331229039</v>
+        <v>2.846609998728553</v>
       </c>
       <c r="G19">
-        <v>0.0006393959264623232</v>
+        <v>0.0007414435238506538</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1836152521120731</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0132550304736041</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>7.749229158701525</v>
+        <v>2.538359795693012</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.7080893498562375</v>
       </c>
       <c r="M19">
-        <v>4.715114608502233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5472364306466773</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.25059014033036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2688217629560938</v>
+        <v>1.802953512970959</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3661251628428488</v>
+        <v>0.02257126003019039</v>
       </c>
       <c r="E20">
-        <v>0.03868558656597543</v>
+        <v>0.8892814844749068</v>
       </c>
       <c r="F20">
-        <v>9.407714735212608</v>
+        <v>2.962618602796994</v>
       </c>
       <c r="G20">
-        <v>0.0006300904988402638</v>
+        <v>0.0007376491690331274</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1788578372788976</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01332815311692226</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>8.162075822150342</v>
+        <v>2.643733481279881</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.7381091749546158</v>
       </c>
       <c r="M20">
-        <v>4.966087717906319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.5693973224920938</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.341047172445755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2996208363059907</v>
+        <v>2.029295564396079</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.44942108413656</v>
+        <v>0.02300312857537534</v>
       </c>
       <c r="E21">
-        <v>0.04429323317678779</v>
+        <v>0.9824991652843664</v>
       </c>
       <c r="F21">
-        <v>11.30480778834746</v>
+        <v>3.368144006618905</v>
       </c>
       <c r="G21">
-        <v>0.0005970298363111075</v>
+        <v>0.0007249458738744826</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1666998958002353</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01384049075804761</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>9.67365668583372</v>
+        <v>3.00365259237978</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.8408189811576676</v>
       </c>
       <c r="M21">
-        <v>5.884502681305648</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6452067092460538</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.658001741993786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3193077114586771</v>
+        <v>2.180724115962846</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5150750266708144</v>
+        <v>0.02355834637179655</v>
       </c>
       <c r="E22">
-        <v>0.04873814111892294</v>
+        <v>1.045002788570216</v>
       </c>
       <c r="F22">
-        <v>12.76264412916976</v>
+        <v>3.646798637080053</v>
       </c>
       <c r="G22">
-        <v>0.0005733097339119429</v>
+        <v>0.0007166517488099046</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1626088843446318</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01445081037906881</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>10.79863097789868</v>
+        <v>3.244136256595567</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.9095677364972801</v>
       </c>
       <c r="M22">
-        <v>6.567166414268769</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.6959237279075836</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.876411235563637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3088525790675902</v>
+        <v>2.099552110995035</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4786852321871748</v>
+        <v>0.02323450544097483</v>
       </c>
       <c r="E23">
-        <v>0.04626846353880865</v>
+        <v>1.011478379843552</v>
       </c>
       <c r="F23">
-        <v>11.95858699047491</v>
+        <v>3.496698149099501</v>
       </c>
       <c r="G23">
-        <v>0.0005862305238353815</v>
+        <v>0.0007210795021669651</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1643532334994333</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01409325841938802</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>10.18180558812819</v>
+        <v>3.115243674532195</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.8727097990623633</v>
       </c>
       <c r="M23">
-        <v>6.192976869793341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.6687366109070183</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.758703579799686</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2683128898151779</v>
+        <v>1.79930656569536</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3648977307737624</v>
+        <v>0.02256828480786766</v>
       </c>
       <c r="E24">
-        <v>0.03860275403857827</v>
+        <v>0.8877803441793546</v>
       </c>
       <c r="F24">
-        <v>9.379345965903013</v>
+        <v>2.956193105950831</v>
       </c>
       <c r="G24">
-        <v>0.0006306068343436541</v>
+        <v>0.0007378573069469763</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1791065786938901</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01332327829194391</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>8.139017728543479</v>
+        <v>2.637926794963747</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.7364542561116707</v>
       </c>
       <c r="M24">
-        <v>4.95207148069963</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.5681756527377289</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.336034306092301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2233974493773871</v>
+        <v>1.487665668139329</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2703121711759024</v>
+        <v>0.02280214026156813</v>
       </c>
       <c r="E25">
-        <v>0.03214190010888629</v>
+        <v>0.7593716731936411</v>
       </c>
       <c r="F25">
-        <v>7.154701387935773</v>
+        <v>2.420127953006528</v>
       </c>
       <c r="G25">
-        <v>0.0006736306277985022</v>
+        <v>0.0007561465138708114</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2060550143082054</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01325366912206949</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>6.282216362934946</v>
+        <v>2.140270970127219</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.5949385211949192</v>
       </c>
       <c r="M25">
-        <v>3.823200385786777</v>
+        <v>0.4637249581593608</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.918976600436437</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.266037340849664</v>
+        <v>0.2955705540160523</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02359729881000661</v>
+        <v>0.04129027188091783</v>
       </c>
       <c r="E2">
-        <v>0.6675494783225133</v>
+        <v>1.420238932916178</v>
       </c>
       <c r="F2">
-        <v>2.055188966207311</v>
+        <v>0.4912376720239209</v>
       </c>
       <c r="G2">
-        <v>0.0007699237104470113</v>
+        <v>0.0007787571262995918</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1755179086598768</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.783686636698192</v>
+        <v>2.891481140868621</v>
       </c>
       <c r="L2">
-        <v>0.4940248679464361</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3893222937262451</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.636581805052259</v>
+        <v>1.338477887335159</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.11960134891558</v>
+        <v>0.257402169173119</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02444678704936365</v>
+        <v>0.03698870506036656</v>
       </c>
       <c r="E3">
-        <v>0.6063913006320476</v>
+        <v>1.218842041910477</v>
       </c>
       <c r="F3">
-        <v>1.822096187480881</v>
+        <v>0.4479802246844358</v>
       </c>
       <c r="G3">
-        <v>0.0007795146598334003</v>
+        <v>0.0007834571344662139</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.191465007147047</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.546148182020374</v>
+        <v>2.526702958247682</v>
       </c>
       <c r="L3">
-        <v>0.4271033551103756</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.340064744802298</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.457033379409978</v>
+        <v>1.244585790147966</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.031224480156766</v>
+        <v>0.2339620112768728</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02510000914409005</v>
+        <v>0.03434274035691942</v>
       </c>
       <c r="E4">
-        <v>0.5691960543572634</v>
+        <v>1.097566956312278</v>
       </c>
       <c r="F4">
-        <v>1.684772468661791</v>
+        <v>0.4228375190890858</v>
       </c>
       <c r="G4">
-        <v>0.0007855458528480685</v>
+        <v>0.0007864230574022857</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2018667309733786</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.401768767964484</v>
+        <v>2.303168416529985</v>
       </c>
       <c r="L4">
-        <v>0.3865739615662704</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3102827653521487</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.35162241558352</v>
+        <v>1.191615656709359</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9955535294437539</v>
+        <v>0.2244063443445725</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02539645067250262</v>
+        <v>0.03326302535542425</v>
       </c>
       <c r="E5">
-        <v>0.5541059477145112</v>
+        <v>1.048654168185735</v>
       </c>
       <c r="F5">
-        <v>1.630106699765932</v>
+        <v>0.4129197711919304</v>
       </c>
       <c r="G5">
-        <v>0.0007880416620365879</v>
+        <v>0.0007876525454879899</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2062539231288194</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.34322870240058</v>
+        <v>2.212141827143626</v>
       </c>
       <c r="L5">
-        <v>0.3701772382574831</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2982476640892315</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.309748107066071</v>
+        <v>1.171116476100963</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9896499514576078</v>
+        <v>0.2228193468566104</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02544742368734276</v>
+        <v>0.03308364413449283</v>
       </c>
       <c r="E6">
-        <v>0.551603704942238</v>
+        <v>1.04056037955371</v>
       </c>
       <c r="F6">
-        <v>1.621103217685814</v>
+        <v>0.411291960403986</v>
       </c>
       <c r="G6">
-        <v>0.0007884584497429988</v>
+        <v>0.0007878579802891087</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2069912345623379</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.333524006130204</v>
+        <v>2.197029634859007</v>
       </c>
       <c r="L6">
-        <v>0.3674611873952074</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2962549504251726</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.302856557856785</v>
+        <v>1.167775706239297</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.030742072917036</v>
+        <v>0.2338331579435078</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0251038881376644</v>
+        <v>0.03432818518742664</v>
       </c>
       <c r="E7">
-        <v>0.5689922992170864</v>
+        <v>1.096905360558438</v>
       </c>
       <c r="F7">
-        <v>1.684030188668899</v>
+        <v>0.4227024724701209</v>
       </c>
       <c r="G7">
-        <v>0.0007855793553390568</v>
+        <v>0.0007864395534217945</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2019253037327102</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.400978171249761</v>
+        <v>2.301940591953013</v>
       </c>
       <c r="L7">
-        <v>0.3863523735993368</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3101200644331925</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.351053472614851</v>
+        <v>1.191334912906285</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.215200578611388</v>
+        <v>0.2824095080849247</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02386106830813617</v>
+        <v>0.03980791772917769</v>
       </c>
       <c r="E8">
-        <v>0.6463739706819212</v>
+        <v>1.350244904710053</v>
       </c>
       <c r="F8">
-        <v>1.973512647640277</v>
+        <v>0.4760106230957746</v>
       </c>
       <c r="G8">
-        <v>0.0007732025626661428</v>
+        <v>0.0007803615071574083</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.180886732216035</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.701431275192107</v>
+        <v>2.765585656063905</v>
       </c>
       <c r="L8">
-        <v>0.4708202520267264</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3722328772253505</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.573585976315414</v>
+        <v>1.305076265969802</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.591262278437938</v>
+        <v>0.377755743300014</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02261493154592387</v>
+        <v>0.05052959256492784</v>
       </c>
       <c r="E9">
-        <v>0.8021087366611113</v>
+        <v>1.870561146707928</v>
       </c>
       <c r="F9">
-        <v>2.595439025039866</v>
+        <v>0.5931819407039214</v>
       </c>
       <c r="G9">
-        <v>0.000749946293532644</v>
+        <v>0.0007690431486115296</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1447103244444166</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.306080810757607</v>
+        <v>3.680570622098458</v>
       </c>
       <c r="L9">
-        <v>0.6420129316468035</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4984623954900371</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.055102772552615</v>
+        <v>1.569675337204274</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.879697166926746</v>
+        <v>0.4480555501878172</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02266344894738737</v>
+        <v>0.0584150298088062</v>
       </c>
       <c r="E10">
-        <v>0.9208728631623728</v>
+        <v>2.274433209918172</v>
       </c>
       <c r="F10">
-        <v>3.098633829821807</v>
+        <v>0.6890825813229213</v>
       </c>
       <c r="G10">
-        <v>0.0007332961375923424</v>
+        <v>0.0007610402731213702</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1215817868512756</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.765861119650467</v>
+        <v>4.359900664737609</v>
       </c>
       <c r="L10">
-        <v>0.7729325270269953</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5951033370598111</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.447229590459472</v>
+        <v>1.796151039543332</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.014434847582095</v>
+        <v>0.4801389037767194</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02296003639949973</v>
+        <v>0.06201012530793548</v>
       </c>
       <c r="E11">
-        <v>0.9763731374173403</v>
+        <v>2.464746509176578</v>
       </c>
       <c r="F11">
-        <v>3.341114220262426</v>
+        <v>0.7353678062447244</v>
       </c>
       <c r="G11">
-        <v>0.000725767988157274</v>
+        <v>0.0007574540964262633</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1118944753932833</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.980043359286867</v>
+        <v>4.671387586607977</v>
       </c>
       <c r="L11">
-        <v>0.8340743974775933</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6402297015293357</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.636841409319857</v>
+        <v>1.907831286858283</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.066049358352416</v>
+        <v>0.4923071930587355</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02311848775458003</v>
+        <v>0.06337320627819309</v>
       </c>
       <c r="E12">
-        <v>0.9976554595780556</v>
+        <v>2.537944817575109</v>
       </c>
       <c r="F12">
-        <v>3.435237715895397</v>
+        <v>0.753326481366372</v>
       </c>
       <c r="G12">
-        <v>0.0007229191278184413</v>
+        <v>0.0007561026760474461</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1083539096860973</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.062034742371722</v>
+        <v>4.789776715989717</v>
       </c>
       <c r="L12">
-        <v>0.8575011970719402</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6575159865336673</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.710546202919787</v>
+        <v>1.95152469136471</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.05490542263135</v>
+        <v>0.4896856187215946</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02308219105383458</v>
+        <v>0.06307955738634519</v>
       </c>
       <c r="E13">
-        <v>0.9930591578167167</v>
+        <v>2.52212676234916</v>
       </c>
       <c r="F13">
-        <v>3.414857999057801</v>
+        <v>0.7494387318776887</v>
       </c>
       <c r="G13">
-        <v>0.0007235326807885467</v>
+        <v>0.0007563934567888148</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1091106168043563</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.044334182076028</v>
+        <v>4.764258698023355</v>
       </c>
       <c r="L13">
-        <v>0.8524428397163604</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.653783738272196</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.694582830010717</v>
+        <v>1.942049454397392</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.01866880369613</v>
+        <v>0.4811395901455597</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02297210505120972</v>
+        <v>0.06212222938229672</v>
       </c>
       <c r="E14">
-        <v>0.978118381681</v>
+        <v>2.470744773116451</v>
       </c>
       <c r="F14">
-        <v>3.348809487208001</v>
+        <v>0.7368363302368692</v>
       </c>
       <c r="G14">
-        <v>0.000725533602767503</v>
+        <v>0.0007573427897620832</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1116005818974743</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.98677007159398</v>
+        <v>4.681118290187271</v>
       </c>
       <c r="L14">
-        <v>0.8359959620309496</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6416476970121607</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.642865192167818</v>
+        <v>1.911396893930885</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.996552691144871</v>
+        <v>0.4759075064376788</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02291090143032193</v>
+        <v>0.06153607686007234</v>
       </c>
       <c r="E15">
-        <v>0.9690030706578909</v>
+        <v>2.4394249623425</v>
       </c>
       <c r="F15">
-        <v>3.308663921065886</v>
+        <v>0.7291747303680296</v>
       </c>
       <c r="G15">
-        <v>0.0007267593174086548</v>
+        <v>0.0007579251024946015</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1131426472635244</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.951630953372003</v>
+        <v>4.630251757598216</v>
       </c>
       <c r="L15">
-        <v>0.825958894475292</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6342407786743465</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.611443806434735</v>
+        <v>1.892808949403729</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.870969722542583</v>
+        <v>0.4459612563752131</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02265013331102494</v>
+        <v>0.05818028760470639</v>
       </c>
       <c r="E16">
-        <v>0.9172798142595937</v>
+        <v>2.26214347627679</v>
       </c>
       <c r="F16">
-        <v>3.083088935281125</v>
+        <v>0.6861153224363363</v>
       </c>
       <c r="G16">
-        <v>0.0007337886587491424</v>
+        <v>0.0007612756300903995</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.12223231623374</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.751978238504918</v>
+        <v>4.339600533581745</v>
       </c>
       <c r="L16">
-        <v>0.7689724192863991</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5921801543978589</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.435087583508817</v>
+        <v>1.789039747389836</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.794888927729289</v>
+        <v>0.4276195568518091</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02256485274171638</v>
+        <v>0.05612402962542262</v>
       </c>
       <c r="E17">
-        <v>0.8859619775438929</v>
+        <v>2.155197367918163</v>
       </c>
       <c r="F17">
-        <v>2.948414386171862</v>
+        <v>0.6604142141518565</v>
       </c>
       <c r="G17">
-        <v>0.0007381095901301245</v>
+        <v>0.0007633441622647792</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1280275412085805</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.630892610703285</v>
+        <v>4.161980371451307</v>
       </c>
       <c r="L17">
-        <v>0.7344495976173278</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.566695800996726</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.329966125659766</v>
+        <v>1.72770457208</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.751455526001394</v>
+        <v>0.4170793815229104</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0225411786672538</v>
+        <v>0.05494203755064575</v>
       </c>
       <c r="E18">
-        <v>0.8680837893055227</v>
+        <v>2.094292706768059</v>
       </c>
       <c r="F18">
-        <v>2.87220694882015</v>
+        <v>0.6458787194232514</v>
       </c>
       <c r="G18">
-        <v>0.0007405995371321915</v>
+        <v>0.0007645391263210072</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1314387901180867</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.561709281054206</v>
+        <v>4.060043675964494</v>
       </c>
       <c r="L18">
-        <v>0.714739146485357</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5521453594457455</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.270540494130017</v>
+        <v>1.693230471191924</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.736803355044714</v>
+        <v>0.413512168802967</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02253733724134221</v>
+        <v>0.05454194224834907</v>
       </c>
       <c r="E19">
-        <v>0.8620522482077249</v>
+        <v>2.073770669399835</v>
       </c>
       <c r="F19">
-        <v>2.846609998728553</v>
+        <v>0.6409982807349621</v>
       </c>
       <c r="G19">
-        <v>0.0007414435238506538</v>
+        <v>0.0007649446489209813</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1326069453686625</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.538359795693012</v>
+        <v>4.02556606609869</v>
       </c>
       <c r="L19">
-        <v>0.7080893498562375</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5472364306466773</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.25059014033036</v>
+        <v>1.681691731842619</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.802953512970959</v>
+        <v>0.4295710517395577</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02257126003019039</v>
+        <v>0.05634284424050406</v>
       </c>
       <c r="E20">
-        <v>0.8892814844749068</v>
+        <v>2.166517800841646</v>
       </c>
       <c r="F20">
-        <v>2.962618602796994</v>
+        <v>0.6631242282019087</v>
       </c>
       <c r="G20">
-        <v>0.0007376491690331274</v>
+        <v>0.0007631234339243177</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1274025030487977</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.643733481279881</v>
+        <v>4.180864411127629</v>
       </c>
       <c r="L20">
-        <v>0.7381091749546158</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5693973224920938</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.341047172445755</v>
+        <v>1.734149478131002</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.029295564396079</v>
+        <v>0.4836492150158307</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02300312857537534</v>
+        <v>0.06240336902560983</v>
       </c>
       <c r="E21">
-        <v>0.9824991652843664</v>
+        <v>2.485804630020368</v>
       </c>
       <c r="F21">
-        <v>3.368144006618905</v>
+        <v>0.7405258340381522</v>
       </c>
       <c r="G21">
-        <v>0.0007249458738744826</v>
+        <v>0.0007570637794182877</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1108656839383695</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.00365259237978</v>
+        <v>4.705526109932805</v>
       </c>
       <c r="L21">
-        <v>0.8408189811576676</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6452067092460538</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.658001741993786</v>
+        <v>1.920360884311265</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.180724115962846</v>
+        <v>0.519105469195523</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02355834637179655</v>
+        <v>0.06637447144291286</v>
       </c>
       <c r="E22">
-        <v>1.045002788570216</v>
+        <v>2.701172849430193</v>
       </c>
       <c r="F22">
-        <v>3.646798637080053</v>
+        <v>0.7936539032136238</v>
       </c>
       <c r="G22">
-        <v>0.0007166517488099046</v>
+        <v>0.0007531411613149284</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1008070398696486</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.244136256595567</v>
+        <v>5.051008522283269</v>
       </c>
       <c r="L22">
-        <v>0.9095677364972801</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6959237279075836</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.876411235563637</v>
+        <v>2.050322179052358</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.099552110995035</v>
+        <v>0.5001699944683793</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02323450544097483</v>
+        <v>0.06425388413444466</v>
       </c>
       <c r="E23">
-        <v>1.011478379843552</v>
+        <v>2.585546548562775</v>
       </c>
       <c r="F23">
-        <v>3.496698149099501</v>
+        <v>0.7650482639933784</v>
       </c>
       <c r="G23">
-        <v>0.0007210795021669651</v>
+        <v>0.0007552317301913479</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1061041992302671</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.115243674532195</v>
+        <v>4.866351596479376</v>
       </c>
       <c r="L23">
-        <v>0.8727097990623633</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6687366109070183</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.758703579799686</v>
+        <v>1.980146588865892</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.79930656569536</v>
+        <v>0.4286887665305272</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02256828480786766</v>
+        <v>0.05624391763919334</v>
       </c>
       <c r="E24">
-        <v>0.8877803441793546</v>
+        <v>2.161398039792161</v>
       </c>
       <c r="F24">
-        <v>2.956193105950831</v>
+        <v>0.6618982856507927</v>
       </c>
       <c r="G24">
-        <v>0.0007378573069469763</v>
+        <v>0.0007632232072212439</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.127684835774077</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.637926794963747</v>
+        <v>4.172326383799998</v>
       </c>
       <c r="L24">
-        <v>0.7364542561116707</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5681756527377289</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.336034306092301</v>
+        <v>1.731233292416192</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.487665668139329</v>
+        <v>0.3519334545920429</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02280214026156813</v>
+        <v>0.04762948243819665</v>
       </c>
       <c r="E25">
-        <v>0.7593716731936411</v>
+        <v>1.72658740925857</v>
       </c>
       <c r="F25">
-        <v>2.420127953006528</v>
+        <v>0.5599250325700353</v>
       </c>
       <c r="G25">
-        <v>0.0007561465138708114</v>
+        <v>0.0007720459771369984</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1539182357969047</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.140270970127219</v>
+        <v>3.432077643549633</v>
       </c>
       <c r="L25">
-        <v>0.5949385211949192</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4637249581593608</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.918976600436437</v>
+        <v>1.492988035023615</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2955705540160523</v>
+        <v>0.1067073025158294</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04129027188091783</v>
+        <v>0.01745812549005166</v>
       </c>
       <c r="E2">
-        <v>1.420238932916178</v>
+        <v>0.4207214845885545</v>
       </c>
       <c r="F2">
-        <v>0.4912376720239209</v>
+        <v>0.5547355846707873</v>
       </c>
       <c r="G2">
-        <v>0.0007787571262995918</v>
+        <v>0.002395864625174338</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1755179086598768</v>
+        <v>0.3969603734482963</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.891481140868621</v>
+        <v>0.8925442119360696</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.338477887335159</v>
+        <v>1.816893039332911</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.257402169173119</v>
+        <v>0.09439299549843838</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03698870506036656</v>
+        <v>0.01595942225532809</v>
       </c>
       <c r="E3">
-        <v>1.218842041910477</v>
+        <v>0.3669982134373555</v>
       </c>
       <c r="F3">
-        <v>0.4479802246844358</v>
+        <v>0.5503303348038884</v>
       </c>
       <c r="G3">
-        <v>0.0007834571344662139</v>
+        <v>0.002398822723454029</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.191465007147047</v>
+        <v>0.4047372261755875</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.526702958247682</v>
+        <v>0.7786953463426869</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.244585790147966</v>
+        <v>1.816724314547827</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2339620112768728</v>
+        <v>0.08682080916184987</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03434274035691942</v>
+        <v>0.01503396172898164</v>
       </c>
       <c r="E4">
-        <v>1.097566956312278</v>
+        <v>0.3341047463456306</v>
       </c>
       <c r="F4">
-        <v>0.4228375190890858</v>
+        <v>0.5481239848103101</v>
       </c>
       <c r="G4">
-        <v>0.0007864230574022857</v>
+        <v>0.002400733500092904</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2018667309733786</v>
+        <v>0.4097942213140899</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.303168416529985</v>
+        <v>0.7085436272149082</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.191615656709359</v>
+        <v>1.818285711413893</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2244063443445725</v>
+        <v>0.0837325212358877</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03326302535542425</v>
+        <v>0.01465553884172976</v>
       </c>
       <c r="E5">
-        <v>1.048654168185735</v>
+        <v>0.3207218923371187</v>
       </c>
       <c r="F5">
-        <v>0.4129197711919304</v>
+        <v>0.5473497653400727</v>
       </c>
       <c r="G5">
-        <v>0.0007876525454879899</v>
+        <v>0.002401535994890106</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2062539231288194</v>
+        <v>0.4119258397448489</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.212141827143626</v>
+        <v>0.6798950155525176</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.171116476100963</v>
+        <v>1.819339002806061</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2228193468566104</v>
+        <v>0.08321956594035385</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03308364413449283</v>
+        <v>0.01459262497788671</v>
       </c>
       <c r="E6">
-        <v>1.04056037955371</v>
+        <v>0.3185009245696335</v>
       </c>
       <c r="F6">
-        <v>0.411291960403986</v>
+        <v>0.547228736054457</v>
       </c>
       <c r="G6">
-        <v>0.0007878579802891087</v>
+        <v>0.002401670690390636</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2069912345623379</v>
+        <v>0.4122840710907854</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.197029634859007</v>
+        <v>0.675134272577111</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.167775706239297</v>
+        <v>1.819539038681256</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2338331579435078</v>
+        <v>0.08677916947394237</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03432818518742664</v>
+        <v>0.01502886337021891</v>
       </c>
       <c r="E7">
-        <v>1.096905360558438</v>
+        <v>0.3339241758557989</v>
       </c>
       <c r="F7">
-        <v>0.4227024724701209</v>
+        <v>0.5481130383741402</v>
       </c>
       <c r="G7">
-        <v>0.0007864395534217945</v>
+        <v>0.002400744226187579</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2019253037327102</v>
+        <v>0.4098226822603288</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.301940591953013</v>
+        <v>0.7081575083314533</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.191334912906285</v>
+        <v>1.818298230235769</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2824095080849247</v>
+        <v>0.1024637859169246</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03980791772917769</v>
+        <v>0.01694247989700415</v>
       </c>
       <c r="E8">
-        <v>1.350244904710053</v>
+        <v>0.4021773040717562</v>
       </c>
       <c r="F8">
-        <v>0.4760106230957746</v>
+        <v>0.5531129102255079</v>
       </c>
       <c r="G8">
-        <v>0.0007803615071574083</v>
+        <v>0.002396865012055266</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.180886732216035</v>
+        <v>0.3995832767112169</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.765585656063905</v>
+        <v>0.8533412636975299</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.305076265969802</v>
+        <v>1.816488282883938</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.377755743300014</v>
+        <v>0.1331236249155694</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05052959256492784</v>
+        <v>0.02065227895133148</v>
       </c>
       <c r="E9">
-        <v>1.870561146707928</v>
+        <v>0.5368476431241476</v>
       </c>
       <c r="F9">
-        <v>0.5931819407039214</v>
+        <v>0.5668953387405438</v>
       </c>
       <c r="G9">
-        <v>0.0007690431486115296</v>
+        <v>0.002390004114536529</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1447103244444166</v>
+        <v>0.3817433259562462</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.680570622098458</v>
+        <v>1.136041209528173</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.569675337204274</v>
+        <v>1.826228267593962</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4480555501878172</v>
+        <v>0.1555798490400093</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0584150298088062</v>
+        <v>0.02335052844927787</v>
       </c>
       <c r="E10">
-        <v>2.274433209918172</v>
+        <v>0.6364267113224997</v>
       </c>
       <c r="F10">
-        <v>0.6890825813229213</v>
+        <v>0.5794793289163636</v>
       </c>
       <c r="G10">
-        <v>0.0007610402731213702</v>
+        <v>0.002385413383827893</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1215817868512756</v>
+        <v>0.3700041448694824</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.359900664737609</v>
+        <v>1.342490120229627</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.796151039543332</v>
+        <v>1.841598627115303</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4801389037767194</v>
+        <v>0.1657787032538351</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06201012530793548</v>
+        <v>0.02457185370379733</v>
       </c>
       <c r="E11">
-        <v>2.464746509176578</v>
+        <v>0.6818955294875337</v>
       </c>
       <c r="F11">
-        <v>0.7353678062447244</v>
+        <v>0.5857451354050767</v>
       </c>
       <c r="G11">
-        <v>0.0007574540964262633</v>
+        <v>0.002383421591611978</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1118944753932833</v>
+        <v>0.3649612562917985</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.671387586607977</v>
+        <v>1.436132998613346</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.907831286858283</v>
+        <v>1.850399360790391</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4923071930587355</v>
+        <v>0.1696381471117263</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06337320627819309</v>
+        <v>0.0250334320915826</v>
       </c>
       <c r="E12">
-        <v>2.537944817575109</v>
+        <v>0.6991400252582594</v>
       </c>
       <c r="F12">
-        <v>0.753326481366372</v>
+        <v>0.5881962200375881</v>
       </c>
       <c r="G12">
-        <v>0.0007561026760474461</v>
+        <v>0.002382681156023435</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1083539096860973</v>
+        <v>0.3630944621362344</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.789776715989717</v>
+        <v>1.471553223464639</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.95152469136471</v>
+        <v>1.853993988466584</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4896856187215946</v>
+        <v>0.1688070683075296</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06307955738634519</v>
+        <v>0.02493406392626696</v>
       </c>
       <c r="E13">
-        <v>2.52212676234916</v>
+        <v>0.6954249061123363</v>
       </c>
       <c r="F13">
-        <v>0.7494387318776887</v>
+        <v>0.5876648416832069</v>
       </c>
       <c r="G13">
-        <v>0.0007563934567888148</v>
+        <v>0.00238284000886157</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1091106168043563</v>
+        <v>0.3634946030737627</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.764258698023355</v>
+        <v>1.463926655938224</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.942049454397392</v>
+        <v>1.853208139150411</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4811395901455597</v>
+        <v>0.1660962763995713</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.06212222938229672</v>
+        <v>0.02460984646693731</v>
       </c>
       <c r="E14">
-        <v>2.470744773116451</v>
+        <v>0.6833137029393583</v>
       </c>
       <c r="F14">
-        <v>0.7368363302368692</v>
+        <v>0.5859452141637007</v>
       </c>
       <c r="G14">
-        <v>0.0007573427897620832</v>
+        <v>0.002383360399082846</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1116005818974743</v>
+        <v>0.3648068149879977</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.681118290187271</v>
+        <v>1.43904785644952</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.911396893930885</v>
+        <v>1.850689831605649</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4759075064376788</v>
+        <v>0.1644354866439386</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.06153607686007234</v>
+        <v>0.02441113437340192</v>
       </c>
       <c r="E15">
-        <v>2.4394249623425</v>
+        <v>0.6758987451607368</v>
       </c>
       <c r="F15">
-        <v>0.7291747303680296</v>
+        <v>0.5849021129645706</v>
       </c>
       <c r="G15">
-        <v>0.0007579251024946015</v>
+        <v>0.002383680949955766</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1131426472635244</v>
+        <v>0.365616163981028</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.630251757598216</v>
+        <v>1.423803589103841</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.892808949403729</v>
+        <v>1.849181469528219</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4459612563752131</v>
+        <v>0.1549129741910065</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05818028760470639</v>
+        <v>0.02327058615215805</v>
       </c>
       <c r="E16">
-        <v>2.26214347627679</v>
+        <v>0.6334588064632953</v>
       </c>
       <c r="F16">
-        <v>0.6861153224363363</v>
+        <v>0.5790807804910827</v>
       </c>
       <c r="G16">
-        <v>0.0007612756300903995</v>
+        <v>0.002385545488844951</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.12223231623374</v>
+        <v>0.3703396995288468</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.339600533581745</v>
+        <v>1.3363647644602</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.789039747389836</v>
+        <v>1.841060035535122</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4276195568518091</v>
+        <v>0.1490667890881667</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05612402962542262</v>
+        <v>0.02256930682602842</v>
       </c>
       <c r="E17">
-        <v>2.155197367918163</v>
+        <v>0.6074682018785893</v>
       </c>
       <c r="F17">
-        <v>0.6604142141518565</v>
+        <v>0.5756485898308767</v>
       </c>
       <c r="G17">
-        <v>0.0007633441622647792</v>
+        <v>0.00238671400178579</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1280275412085805</v>
+        <v>0.3733136464589668</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.161980371451307</v>
+        <v>1.282653397138802</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.72770457208</v>
+        <v>1.83654239095722</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4170793815229104</v>
+        <v>0.14570267114442</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05494203755064575</v>
+        <v>0.02216537507850802</v>
       </c>
       <c r="E18">
-        <v>2.094292706768059</v>
+        <v>0.5925349537128994</v>
       </c>
       <c r="F18">
-        <v>0.6458787194232514</v>
+        <v>0.5737254015578657</v>
       </c>
       <c r="G18">
-        <v>0.0007645391263210072</v>
+        <v>0.002387395192158127</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1314387901180867</v>
+        <v>0.3750521625396726</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.060043675964494</v>
+        <v>1.251734531184297</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.693230471191924</v>
+        <v>1.834114089003009</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.413512168802967</v>
+        <v>0.1445633807234543</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05454194224834907</v>
+        <v>0.02202851301286302</v>
       </c>
       <c r="E19">
-        <v>2.073770669399835</v>
+        <v>0.5874814751355615</v>
       </c>
       <c r="F19">
-        <v>0.6409982807349621</v>
+        <v>0.573082972185432</v>
       </c>
       <c r="G19">
-        <v>0.0007649446489209813</v>
+        <v>0.002387627395175848</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1326069453686625</v>
+        <v>0.3756455973574582</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.02556606609869</v>
+        <v>1.241261590894283</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.681691731842619</v>
+        <v>1.833321069696723</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4295710517395577</v>
+        <v>0.1496892874222624</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05634284424050406</v>
+        <v>0.02264401888158574</v>
       </c>
       <c r="E20">
-        <v>2.166517800841646</v>
+        <v>0.610233290068507</v>
       </c>
       <c r="F20">
-        <v>0.6631242282019087</v>
+        <v>0.5760086788764056</v>
       </c>
       <c r="G20">
-        <v>0.0007631234339243177</v>
+        <v>0.002386588671169674</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1274025030487977</v>
+        <v>0.3729941682551816</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.180864411127629</v>
+        <v>1.288373712781436</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.734149478131002</v>
+        <v>1.837005680638129</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4836492150158307</v>
+        <v>0.1668925753849777</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.06240336902560983</v>
+        <v>0.02470510195967535</v>
       </c>
       <c r="E21">
-        <v>2.485804630020368</v>
+        <v>0.6868703230467332</v>
       </c>
       <c r="F21">
-        <v>0.7405258340381522</v>
+        <v>0.5864481796104997</v>
       </c>
       <c r="G21">
-        <v>0.0007570637794182877</v>
+        <v>0.002383207173545797</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1108656839383695</v>
+        <v>0.3644202232507476</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.705526109932805</v>
+        <v>1.446356466327245</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.920360884311265</v>
+        <v>1.851422394349811</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.519105469195523</v>
+        <v>0.1781204088217407</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06637447144291286</v>
+        <v>0.02604681510985785</v>
       </c>
       <c r="E22">
-        <v>2.701172849430193</v>
+        <v>0.7371121287652045</v>
       </c>
       <c r="F22">
-        <v>0.7936539032136238</v>
+        <v>0.5937279813233545</v>
       </c>
       <c r="G22">
-        <v>0.0007531411613149284</v>
+        <v>0.002381077648015092</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1008070398696486</v>
+        <v>0.3590663883962328</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.051008522283269</v>
+        <v>1.549371870185553</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.050322179052358</v>
+        <v>1.862372460073715</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5001699944683793</v>
+        <v>0.1721294055082865</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.06425388413444466</v>
+        <v>0.02533121468712807</v>
       </c>
       <c r="E23">
-        <v>2.585546548562775</v>
+        <v>0.7102822675780374</v>
       </c>
       <c r="F23">
-        <v>0.7650482639933784</v>
+        <v>0.5898006266316429</v>
       </c>
       <c r="G23">
-        <v>0.0007552317301913479</v>
+        <v>0.002382206875666704</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1061041992302671</v>
+        <v>0.3619009523161001</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.866351596479376</v>
+        <v>1.494412553646328</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.980146588865892</v>
+        <v>1.856387771911159</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4286887665305272</v>
+        <v>0.1494078654641697</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05624391763919334</v>
+        <v>0.02261024391665245</v>
       </c>
       <c r="E24">
-        <v>2.161398039792161</v>
+        <v>0.6089831655574329</v>
       </c>
       <c r="F24">
-        <v>0.6618982856507927</v>
+        <v>0.575845726831858</v>
       </c>
       <c r="G24">
-        <v>0.0007632232072212439</v>
+        <v>0.002386645303996115</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.127684835774077</v>
+        <v>0.3731385147876134</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.172326383799998</v>
+        <v>1.285787680990097</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.731233292416192</v>
+        <v>1.83679570121646</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3519334545920429</v>
+        <v>0.124840825348457</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04762948243819665</v>
+        <v>0.01965339264135935</v>
       </c>
       <c r="E25">
-        <v>1.72658740925857</v>
+        <v>0.5003136139544608</v>
       </c>
       <c r="F25">
-        <v>0.5599250325700353</v>
+        <v>0.5627375683187523</v>
       </c>
       <c r="G25">
-        <v>0.0007720459771369984</v>
+        <v>0.002391780793488951</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1539182357969047</v>
+        <v>0.3863294898702501</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.432077643549633</v>
+        <v>1.059781038383164</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.492988035023615</v>
+        <v>1.822158992178856</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1067073025158294</v>
+        <v>0.2955705540160665</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01745812549005166</v>
+        <v>0.04129027188076151</v>
       </c>
       <c r="E2">
-        <v>0.4207214845885545</v>
+        <v>1.420238932916163</v>
       </c>
       <c r="F2">
-        <v>0.5547355846707873</v>
+        <v>0.4912376720239351</v>
       </c>
       <c r="G2">
-        <v>0.002395864625174338</v>
+        <v>0.0007787571263791524</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3969603734482963</v>
+        <v>0.1755179086598888</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8925442119360696</v>
+        <v>2.891481140868734</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.816893039332911</v>
+        <v>1.338477887335188</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.09439299549843838</v>
+        <v>0.2574021691732327</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01595942225532809</v>
+        <v>0.03698870506032392</v>
       </c>
       <c r="E3">
-        <v>0.3669982134373555</v>
+        <v>1.218842041910435</v>
       </c>
       <c r="F3">
-        <v>0.5503303348038884</v>
+        <v>0.44798022468445</v>
       </c>
       <c r="G3">
-        <v>0.002398822723454029</v>
+        <v>0.0007834571345231441</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4047372261755875</v>
+        <v>0.1914650071470474</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7786953463426869</v>
+        <v>2.526702958247455</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.816724314547827</v>
+        <v>1.24458579014788</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08682080916184987</v>
+        <v>0.2339620112769722</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01503396172898164</v>
+        <v>0.03434274035703311</v>
       </c>
       <c r="E4">
-        <v>0.3341047463456306</v>
+        <v>1.097566956312264</v>
       </c>
       <c r="F4">
-        <v>0.5481239848103101</v>
+        <v>0.4228375190890716</v>
       </c>
       <c r="G4">
-        <v>0.002400733500092904</v>
+        <v>0.0007864230574609679</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4097942213140899</v>
+        <v>0.2018667309733742</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7085436272149082</v>
+        <v>2.3031684165299</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.818285711413893</v>
+        <v>1.191615656709331</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0837325212358877</v>
+        <v>0.224406344344672</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01465553884172976</v>
+        <v>0.03326302535550951</v>
       </c>
       <c r="E5">
-        <v>0.3207218923371187</v>
+        <v>1.048654168185735</v>
       </c>
       <c r="F5">
-        <v>0.5473497653400727</v>
+        <v>0.4129197711919232</v>
       </c>
       <c r="G5">
-        <v>0.002401535994890106</v>
+        <v>0.0007876525454685727</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4119258397448489</v>
+        <v>0.2062539231288167</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6798950155525176</v>
+        <v>2.212141827143711</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.819339002806061</v>
+        <v>1.171116476100877</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08321956594035385</v>
+        <v>0.2228193468566673</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01459262497788671</v>
+        <v>0.03308364413466336</v>
       </c>
       <c r="E6">
-        <v>0.3185009245696335</v>
+        <v>1.040560379553725</v>
       </c>
       <c r="F6">
-        <v>0.547228736054457</v>
+        <v>0.4112919604040002</v>
       </c>
       <c r="G6">
-        <v>0.002401670690390636</v>
+        <v>0.0007878579802330643</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4122840710907854</v>
+        <v>0.2069912345623339</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.675134272577111</v>
+        <v>2.197029634858922</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.819539038681256</v>
+        <v>1.167775706239297</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08677916947394237</v>
+        <v>0.2338331579433799</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01502886337021891</v>
+        <v>0.03432818518743375</v>
       </c>
       <c r="E7">
-        <v>0.3339241758557989</v>
+        <v>1.096905360558395</v>
       </c>
       <c r="F7">
-        <v>0.5481130383741402</v>
+        <v>0.4227024724701209</v>
       </c>
       <c r="G7">
-        <v>0.002400744226187579</v>
+        <v>0.000786439553481039</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4098226822603288</v>
+        <v>0.2019253037326956</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7081575083314533</v>
+        <v>2.301940591952985</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.818298230235769</v>
+        <v>1.191334912906257</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1024637859169246</v>
+        <v>0.2824095080846973</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01694247989700415</v>
+        <v>0.03980791772940506</v>
       </c>
       <c r="E8">
-        <v>0.4021773040717562</v>
+        <v>1.350244904710067</v>
       </c>
       <c r="F8">
-        <v>0.5531129102255079</v>
+        <v>0.4760106230957746</v>
       </c>
       <c r="G8">
-        <v>0.002396865012055266</v>
+        <v>0.000780361507179402</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3995832767112169</v>
+        <v>0.1808867322160328</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8533412636975299</v>
+        <v>2.765585656063934</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.816488282883938</v>
+        <v>1.305076265969774</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1331236249155694</v>
+        <v>0.3777557433000283</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02065227895133148</v>
+        <v>0.05052959256494205</v>
       </c>
       <c r="E9">
-        <v>0.5368476431241476</v>
+        <v>1.870561146707928</v>
       </c>
       <c r="F9">
-        <v>0.5668953387405438</v>
+        <v>0.5931819407039214</v>
       </c>
       <c r="G9">
-        <v>0.002390004114536529</v>
+        <v>0.0007690431485871842</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3817433259562462</v>
+        <v>0.144710324444405</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.136041209528173</v>
+        <v>3.680570622098514</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.826228267593962</v>
+        <v>1.569675337204302</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1555798490400093</v>
+        <v>0.4480555501879167</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02335052844927787</v>
+        <v>0.0584150298088062</v>
       </c>
       <c r="E10">
-        <v>0.6364267113224997</v>
+        <v>2.274433209918143</v>
       </c>
       <c r="F10">
-        <v>0.5794793289163636</v>
+        <v>0.6890825813229213</v>
       </c>
       <c r="G10">
-        <v>0.002385413383827893</v>
+        <v>0.0007610402730928701</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3700041448694824</v>
+        <v>0.121581786851257</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.342490120229627</v>
+        <v>4.359900664737779</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.841598627115303</v>
+        <v>1.796151039543304</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1657787032538351</v>
+        <v>0.4801389037766057</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02457185370379733</v>
+        <v>0.06201012530776495</v>
       </c>
       <c r="E11">
-        <v>0.6818955294875337</v>
+        <v>2.464746509176592</v>
       </c>
       <c r="F11">
-        <v>0.5857451354050767</v>
+        <v>0.7353678062447386</v>
       </c>
       <c r="G11">
-        <v>0.002383421591611978</v>
+        <v>0.0007574540963992652</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3649612562917985</v>
+        <v>0.1118944753932798</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.436132998613346</v>
+        <v>4.671387586607977</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.850399360790391</v>
+        <v>1.907831286858368</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1696381471117263</v>
+        <v>0.4923071930586644</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0250334320915826</v>
+        <v>0.06337320627820731</v>
       </c>
       <c r="E12">
-        <v>0.6991400252582594</v>
+        <v>2.537944817575095</v>
       </c>
       <c r="F12">
-        <v>0.5881962200375881</v>
+        <v>0.7533264813663578</v>
       </c>
       <c r="G12">
-        <v>0.002382681156023435</v>
+        <v>0.0007561026760764352</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3630944621362344</v>
+        <v>0.108353909686099</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.471553223464639</v>
+        <v>4.789776715989774</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.853993988466584</v>
+        <v>1.95152469136471</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1688070683075296</v>
+        <v>0.4896856187214667</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02493406392626696</v>
+        <v>0.06307955738641624</v>
       </c>
       <c r="E13">
-        <v>0.6954249061123363</v>
+        <v>2.52212676234916</v>
       </c>
       <c r="F13">
-        <v>0.5876648416832069</v>
+        <v>0.7494387318777171</v>
       </c>
       <c r="G13">
-        <v>0.00238284000886157</v>
+        <v>0.0007563934567614103</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3634946030737627</v>
+        <v>0.1091106168043439</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.463926655938224</v>
+        <v>4.764258698023525</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.853208139150411</v>
+        <v>1.942049454397448</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1660962763995713</v>
+        <v>0.4811395901457018</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02460984646693731</v>
+        <v>0.06212222938236778</v>
       </c>
       <c r="E14">
-        <v>0.6833137029393583</v>
+        <v>2.470744773116451</v>
       </c>
       <c r="F14">
-        <v>0.5859452141637007</v>
+        <v>0.7368363302368692</v>
       </c>
       <c r="G14">
-        <v>0.002383360399082846</v>
+        <v>0.0007573427897620277</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3648068149879977</v>
+        <v>0.1116005818974921</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.43904785644952</v>
+        <v>4.681118290187271</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.850689831605649</v>
+        <v>1.911396893930885</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1644354866439386</v>
+        <v>0.4759075064376788</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02441113437340192</v>
+        <v>0.06153607685995155</v>
       </c>
       <c r="E15">
-        <v>0.6758987451607368</v>
+        <v>2.439424962342486</v>
       </c>
       <c r="F15">
-        <v>0.5849021129645706</v>
+        <v>0.7291747303680296</v>
       </c>
       <c r="G15">
-        <v>0.002383680949955766</v>
+        <v>0.0007579251024936578</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.365616163981028</v>
+        <v>0.1131426472635262</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.423803589103841</v>
+        <v>4.630251757598273</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.849181469528219</v>
+        <v>1.892808949403673</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1549129741910065</v>
+        <v>0.4459612563751989</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02327058615215805</v>
+        <v>0.05818028760464244</v>
       </c>
       <c r="E16">
-        <v>0.6334588064632953</v>
+        <v>2.262143476276776</v>
       </c>
       <c r="F16">
-        <v>0.5790807804910827</v>
+        <v>0.6861153224363363</v>
       </c>
       <c r="G16">
-        <v>0.002385545488844951</v>
+        <v>0.0007612756300883688</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3703396995288468</v>
+        <v>0.12223231623374</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.3363647644602</v>
+        <v>4.339600533581631</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.841060035535122</v>
+        <v>1.789039747389808</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1490667890881667</v>
+        <v>0.4276195568517949</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02256930682602842</v>
+        <v>0.05612402962537288</v>
       </c>
       <c r="E17">
-        <v>0.6074682018785893</v>
+        <v>2.155197367918163</v>
       </c>
       <c r="F17">
-        <v>0.5756485898308767</v>
+        <v>0.6604142141518565</v>
       </c>
       <c r="G17">
-        <v>0.00238671400178579</v>
+        <v>0.0007633441622641058</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3733136464589668</v>
+        <v>0.1280275412085778</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.282653397138802</v>
+        <v>4.161980371451307</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.83654239095722</v>
+        <v>1.727704572080029</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.14570267114442</v>
+        <v>0.4170793815231661</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02216537507850802</v>
+        <v>0.05494203755068838</v>
       </c>
       <c r="E18">
-        <v>0.5925349537128994</v>
+        <v>2.094292706768101</v>
       </c>
       <c r="F18">
-        <v>0.5737254015578657</v>
+        <v>0.6458787194232229</v>
       </c>
       <c r="G18">
-        <v>0.002387395192158127</v>
+        <v>0.0007645391263500175</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3750521625396726</v>
+        <v>0.1314387901180862</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.251734531184297</v>
+        <v>4.060043675964664</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.834114089003009</v>
+        <v>1.693230471191924</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1445633807234543</v>
+        <v>0.4135121688031091</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02202851301286302</v>
+        <v>0.05454194224805775</v>
       </c>
       <c r="E19">
-        <v>0.5874814751355615</v>
+        <v>2.073770669399821</v>
       </c>
       <c r="F19">
-        <v>0.573082972185432</v>
+        <v>0.6409982807349621</v>
       </c>
       <c r="G19">
-        <v>0.002387627395175848</v>
+        <v>0.0007649446488933549</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3756455973574582</v>
+        <v>0.1326069453686474</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.241261590894283</v>
+        <v>4.02556606609869</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.833321069696723</v>
+        <v>1.681691731842562</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1496892874222624</v>
+        <v>0.4295710517394582</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02264401888158574</v>
+        <v>0.05634284424050406</v>
       </c>
       <c r="E20">
-        <v>0.610233290068507</v>
+        <v>2.166517800841646</v>
       </c>
       <c r="F20">
-        <v>0.5760086788764056</v>
+        <v>0.6631242282018945</v>
       </c>
       <c r="G20">
-        <v>0.002386588671169674</v>
+        <v>0.0007631234338707493</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3729941682551816</v>
+        <v>0.1274025030487977</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.288373712781436</v>
+        <v>4.180864411127516</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.837005680638129</v>
+        <v>1.734149478130945</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1668925753849777</v>
+        <v>0.4836492150158165</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02470510195967535</v>
+        <v>0.06240336902560983</v>
       </c>
       <c r="E21">
-        <v>0.6868703230467332</v>
+        <v>2.485804630020382</v>
       </c>
       <c r="F21">
-        <v>0.5864481796104997</v>
+        <v>0.7405258340381238</v>
       </c>
       <c r="G21">
-        <v>0.002383207173545797</v>
+        <v>0.0007570637793351587</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3644202232507476</v>
+        <v>0.1108656839383562</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.446356466327245</v>
+        <v>4.705526109932805</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.851422394349811</v>
+        <v>1.920360884311265</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1781204088217407</v>
+        <v>0.5191054691954662</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02604681510985785</v>
+        <v>0.06637447144291286</v>
       </c>
       <c r="E22">
-        <v>0.7371121287652045</v>
+        <v>2.701172849430208</v>
       </c>
       <c r="F22">
-        <v>0.5937279813233545</v>
+        <v>0.7936539032136238</v>
       </c>
       <c r="G22">
-        <v>0.002381077648015092</v>
+        <v>0.0007531411613146703</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3590663883962328</v>
+        <v>0.1008070398696628</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.549371870185553</v>
+        <v>5.051008522283269</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.862372460073715</v>
+        <v>2.050322179052387</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1721294055082865</v>
+        <v>0.500169994468294</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02533121468712807</v>
+        <v>0.06425388413455835</v>
       </c>
       <c r="E23">
-        <v>0.7102822675780374</v>
+        <v>2.585546548562803</v>
       </c>
       <c r="F23">
-        <v>0.5898006266316429</v>
+        <v>0.7650482639933784</v>
       </c>
       <c r="G23">
-        <v>0.002382206875666704</v>
+        <v>0.0007552317301911622</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3619009523161001</v>
+        <v>0.1061041992302636</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.494412553646328</v>
+        <v>4.866351596479262</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.856387771911159</v>
+        <v>1.980146588865836</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1494078654641697</v>
+        <v>0.4286887665305414</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02261024391665245</v>
+        <v>0.05624391763897307</v>
       </c>
       <c r="E24">
-        <v>0.6089831655574329</v>
+        <v>2.161398039792203</v>
       </c>
       <c r="F24">
-        <v>0.575845726831858</v>
+        <v>0.6618982856508069</v>
       </c>
       <c r="G24">
-        <v>0.002386645303996115</v>
+        <v>0.0007632232072218442</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3731385147876134</v>
+        <v>0.127684835774089</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.285787680990097</v>
+        <v>4.172326383800339</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.83679570121646</v>
+        <v>1.731233292416221</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.124840825348457</v>
+        <v>0.3519334545920287</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01965339264135935</v>
+        <v>0.0476294824382677</v>
       </c>
       <c r="E25">
-        <v>0.5003136139544608</v>
+        <v>1.726587409258599</v>
       </c>
       <c r="F25">
-        <v>0.5627375683187523</v>
+        <v>0.559925032570014</v>
       </c>
       <c r="G25">
-        <v>0.002391780793488951</v>
+        <v>0.000772045977161246</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3863294898702501</v>
+        <v>0.1539182357968976</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.059781038383164</v>
+        <v>3.432077643549746</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.822158992178856</v>
+        <v>1.492988035023672</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2955705540160665</v>
+        <v>0.6898622639140797</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04129027188076151</v>
+        <v>0.07839716282787634</v>
       </c>
       <c r="E2">
-        <v>1.420238932916163</v>
+        <v>0.1670932400694378</v>
       </c>
       <c r="F2">
-        <v>0.4912376720239351</v>
+        <v>0.3418153055437756</v>
       </c>
       <c r="G2">
-        <v>0.0007787571263791524</v>
+        <v>0.2377004031218632</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01005296449838224</v>
       </c>
       <c r="I2">
-        <v>0.1755179086598888</v>
+        <v>0.02363686423770917</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2276733867259608</v>
       </c>
       <c r="K2">
-        <v>2.891481140868734</v>
+        <v>0.4288508753028299</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.487715301914022</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1958077176303448</v>
       </c>
       <c r="O2">
-        <v>1.338477887335188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1896951296056102</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.9297445039516248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2574021691732327</v>
+        <v>0.6044687044368686</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03698870506032392</v>
+        <v>0.06930726174900315</v>
       </c>
       <c r="E3">
-        <v>1.218842041910435</v>
+        <v>0.1644309210863407</v>
       </c>
       <c r="F3">
-        <v>0.44798022468445</v>
+        <v>0.32363901336727</v>
       </c>
       <c r="G3">
-        <v>0.0007834571345231441</v>
+        <v>0.2280446147025046</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01211474857404771</v>
       </c>
       <c r="I3">
-        <v>0.1914650071470474</v>
+        <v>0.02639572177327176</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2274703466686034</v>
       </c>
       <c r="K3">
-        <v>2.526702958247455</v>
+        <v>0.4403145903543404</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.329748779301639</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1710079817445092</v>
       </c>
       <c r="O3">
-        <v>1.24458579014788</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1659592939613219</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.908572520187775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2339620112769722</v>
+        <v>0.55155143599643</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03434274035703311</v>
+        <v>0.06373253800298073</v>
       </c>
       <c r="E4">
-        <v>1.097566956312264</v>
+        <v>0.1627450683959482</v>
       </c>
       <c r="F4">
-        <v>0.4228375190890716</v>
+        <v>0.3128952259507471</v>
       </c>
       <c r="G4">
-        <v>0.0007864230574609679</v>
+        <v>0.2224567543533382</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01352860452288177</v>
       </c>
       <c r="I4">
-        <v>0.2018667309733742</v>
+        <v>0.02826594329352883</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2275918312587777</v>
       </c>
       <c r="K4">
-        <v>2.3031684165299</v>
+        <v>0.4475578978258454</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.233044955410577</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1558840876955045</v>
       </c>
       <c r="O4">
-        <v>1.191615656709331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1513404846104685</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8968034194546703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.224406344344672</v>
+        <v>0.5288941015803914</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03326302535550951</v>
+        <v>0.06151744059491193</v>
       </c>
       <c r="E5">
-        <v>1.048654168185735</v>
+        <v>0.1619885172959745</v>
       </c>
       <c r="F5">
-        <v>0.4129197711919232</v>
+        <v>0.3082964493791067</v>
       </c>
       <c r="G5">
-        <v>0.0007876525454685727</v>
+        <v>0.2199564148582738</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0141456093297788</v>
       </c>
       <c r="I5">
-        <v>0.2062539231288167</v>
+        <v>0.02917088651911337</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2275372402179059</v>
       </c>
       <c r="K5">
-        <v>2.212141827143711</v>
+        <v>0.4501879916500471</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.195212864384644</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.150024905557963</v>
       </c>
       <c r="O5">
-        <v>1.171116476100877</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1453105580421372</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8913143280540368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2228193468566673</v>
+        <v>0.5239350879789697</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03308364413466336</v>
+        <v>0.06121782376727936</v>
       </c>
       <c r="E6">
-        <v>1.040560379553725</v>
+        <v>0.1617947816759536</v>
       </c>
       <c r="F6">
-        <v>0.4112919604040002</v>
+        <v>0.307147155329524</v>
       </c>
       <c r="G6">
-        <v>0.0007878579802330643</v>
+        <v>0.2191738424684715</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01425606195889804</v>
       </c>
       <c r="I6">
-        <v>0.2069912345623339</v>
+        <v>0.02945250827261248</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.227331153211189</v>
       </c>
       <c r="K6">
-        <v>2.197029634858922</v>
+        <v>0.4501754649054561</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.190790941667672</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1493965367574219</v>
       </c>
       <c r="O6">
-        <v>1.167775706239297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1442339677712923</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8892113696237374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2338331579433799</v>
+        <v>0.5479870959478319</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03432818518743375</v>
+        <v>0.06388942504435136</v>
       </c>
       <c r="E7">
-        <v>1.096905360558395</v>
+        <v>0.1625535767943583</v>
       </c>
       <c r="F7">
-        <v>0.4227024724701209</v>
+        <v>0.3117646833206749</v>
       </c>
       <c r="G7">
-        <v>0.000786439553481039</v>
+        <v>0.2214076674561269</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01355194939485511</v>
       </c>
       <c r="I7">
-        <v>0.2019253037326956</v>
+        <v>0.02861232186699247</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2270448208098728</v>
       </c>
       <c r="K7">
-        <v>2.301940591952985</v>
+        <v>0.4463650416100524</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.237623872878032</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1567436709382761</v>
       </c>
       <c r="O7">
-        <v>1.191334912906257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1510548619556396</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8934331033043321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2824095080846973</v>
+        <v>0.6561709645373242</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03980791772940506</v>
+        <v>0.07551125411055892</v>
       </c>
       <c r="E8">
-        <v>1.350244904710067</v>
+        <v>0.1659607138515787</v>
       </c>
       <c r="F8">
-        <v>0.4760106230957746</v>
+        <v>0.3340519208153552</v>
       </c>
       <c r="G8">
-        <v>0.000780361507179402</v>
+        <v>0.232962764474884</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01074897124117517</v>
       </c>
       <c r="I8">
-        <v>0.1808867322160328</v>
+        <v>0.02495509085039771</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2268371907600795</v>
       </c>
       <c r="K8">
-        <v>2.765585656063934</v>
+        <v>0.431179682908807</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.4400048659856</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1884847878319817</v>
       </c>
       <c r="O8">
-        <v>1.305076265969774</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1812472981882109</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.9178562834854063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3777557433000283</v>
+        <v>0.8703070564247355</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05052959256494205</v>
+        <v>0.09804305800216895</v>
       </c>
       <c r="E9">
-        <v>1.870561146707928</v>
+        <v>0.1725652831415163</v>
       </c>
       <c r="F9">
-        <v>0.5931819407039214</v>
+        <v>0.3832054953712714</v>
       </c>
       <c r="G9">
-        <v>0.0007690431485871842</v>
+        <v>0.2603390542669288</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.006459058770243997</v>
       </c>
       <c r="I9">
-        <v>0.144710324444405</v>
+        <v>0.01871239161893978</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2294339217308448</v>
       </c>
       <c r="K9">
-        <v>3.680570622098514</v>
+        <v>0.4051758641789558</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.830437577926688</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2499469432608379</v>
       </c>
       <c r="O9">
-        <v>1.569675337204302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2404907179237128</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9819808306376387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4480555501879167</v>
+        <v>1.013775448318398</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0584150298088062</v>
+        <v>0.1158018233502105</v>
       </c>
       <c r="E10">
-        <v>2.274433209918143</v>
+        <v>0.1765575786731808</v>
       </c>
       <c r="F10">
-        <v>0.6890825813229213</v>
+        <v>0.4159660529618208</v>
       </c>
       <c r="G10">
-        <v>0.0007610402730928701</v>
+        <v>0.2769996224889937</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.004470915345828441</v>
       </c>
       <c r="I10">
-        <v>0.121581786851257</v>
+        <v>0.01533333177588858</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2298252385380124</v>
       </c>
       <c r="K10">
-        <v>4.359900664737779</v>
+        <v>0.3822377049827601</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.143037470524831</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2851475775739516</v>
       </c>
       <c r="O10">
-        <v>1.796151039543304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2779238600638223</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.018564045529033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4801389037766057</v>
+        <v>0.9887444462978578</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06201012530776495</v>
+        <v>0.1335219874234213</v>
       </c>
       <c r="E11">
-        <v>2.464746509176592</v>
+        <v>0.1867268628205618</v>
       </c>
       <c r="F11">
-        <v>0.7353678062447386</v>
+        <v>0.3841450265177286</v>
       </c>
       <c r="G11">
-        <v>0.0007574540963992652</v>
+        <v>0.2412340249965155</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02324644554505539</v>
       </c>
       <c r="I11">
-        <v>0.1118944753932798</v>
+        <v>0.01526595120633445</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2073251564932121</v>
       </c>
       <c r="K11">
-        <v>4.671387586607977</v>
+        <v>0.3415898350097777</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.484797232982032</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2131782841529599</v>
       </c>
       <c r="O11">
-        <v>1.907831286858368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2455552986354022</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.8958324018466186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4923071930586644</v>
+        <v>0.9427913016382092</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06337320627820731</v>
+        <v>0.1450107171805683</v>
       </c>
       <c r="E12">
-        <v>2.537944817575095</v>
+        <v>0.2122838050324098</v>
       </c>
       <c r="F12">
-        <v>0.7533264813663578</v>
+        <v>0.3525579925966014</v>
       </c>
       <c r="G12">
-        <v>0.0007561026760764352</v>
+        <v>0.2105603775075835</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0622094316859787</v>
       </c>
       <c r="I12">
-        <v>0.108353909686099</v>
+        <v>0.01525250469086892</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1896430839139072</v>
       </c>
       <c r="K12">
-        <v>4.789776715989774</v>
+        <v>0.3240672354035166</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.712708187041244</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1531525905112829</v>
       </c>
       <c r="O12">
-        <v>1.95152469136471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2126157621010094</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.7938632920328388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4896856187214667</v>
+        <v>0.873235713259902</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06307955738641624</v>
+        <v>0.152545829138802</v>
       </c>
       <c r="E13">
-        <v>2.52212676234916</v>
+        <v>0.2501434446658415</v>
       </c>
       <c r="F13">
-        <v>0.7494387318777171</v>
+        <v>0.3174707614087993</v>
       </c>
       <c r="G13">
-        <v>0.0007563934567614103</v>
+        <v>0.1802701255997192</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1183779313914499</v>
       </c>
       <c r="I13">
-        <v>0.1091106168043439</v>
+        <v>0.01575280506836751</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1736767762763094</v>
       </c>
       <c r="K13">
-        <v>4.764258698023525</v>
+        <v>0.3208531077754886</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.871847315375874</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1005826180062428</v>
       </c>
       <c r="O13">
-        <v>1.942049454397448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.177211513052022</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6962116147346649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4811395901457018</v>
+        <v>0.8134283988403297</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.06212222938236778</v>
+        <v>0.1561049831076389</v>
       </c>
       <c r="E14">
-        <v>2.470744773116451</v>
+        <v>0.2842963251548056</v>
       </c>
       <c r="F14">
-        <v>0.7368363302368692</v>
+        <v>0.2913120987356166</v>
       </c>
       <c r="G14">
-        <v>0.0007573427897620277</v>
+        <v>0.1593424222298978</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.168060971094917</v>
       </c>
       <c r="I14">
-        <v>0.1116005818974921</v>
+        <v>0.01643862433711174</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1632869639584982</v>
       </c>
       <c r="K14">
-        <v>4.681118290187271</v>
+        <v>0.3261935050486198</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.954316479166124</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06892382576516098</v>
       </c>
       <c r="O14">
-        <v>1.911396893930885</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1517663300913235</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.6300460987664138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4759075064376788</v>
+        <v>0.7927716147545425</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.06153607685995155</v>
+        <v>0.156123785557881</v>
       </c>
       <c r="E15">
-        <v>2.439424962342486</v>
+        <v>0.2931929386992564</v>
       </c>
       <c r="F15">
-        <v>0.7291747303680296</v>
+        <v>0.2838085194026263</v>
       </c>
       <c r="G15">
-        <v>0.0007579251024936578</v>
+        <v>0.1538652230028674</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1807277606102105</v>
       </c>
       <c r="I15">
-        <v>0.1131426472635262</v>
+        <v>0.01687623407353467</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1608940271139332</v>
       </c>
       <c r="K15">
-        <v>4.630251757598273</v>
+        <v>0.3292644900020658</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.960095496270725</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06179107289484875</v>
       </c>
       <c r="O15">
-        <v>1.892808949403673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1447962070721864</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.6133937735814925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4459612563751989</v>
+        <v>0.7452511502490609</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05818028760464244</v>
+        <v>0.1467559059077388</v>
       </c>
       <c r="E16">
-        <v>2.262143476276776</v>
+        <v>0.2823264047160698</v>
       </c>
       <c r="F16">
-        <v>0.6861153224363363</v>
+        <v>0.2760236303860779</v>
       </c>
       <c r="G16">
-        <v>0.0007612756300883688</v>
+        <v>0.1520586131608894</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1688766854526591</v>
       </c>
       <c r="I16">
-        <v>0.12223231623374</v>
+        <v>0.01842772425421924</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1634022454333746</v>
       </c>
       <c r="K16">
-        <v>4.339600533581631</v>
+        <v>0.3378555647946602</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.789851602385767</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05921267780263406</v>
       </c>
       <c r="O16">
-        <v>1.789039747389808</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1368024965328836</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.6146264073230157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4276195568517949</v>
+        <v>0.7400866539672677</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05612402962537288</v>
+        <v>0.1377073047421504</v>
       </c>
       <c r="E17">
-        <v>2.155197367918163</v>
+        <v>0.254566060962123</v>
       </c>
       <c r="F17">
-        <v>0.6604142141518565</v>
+        <v>0.283947999812888</v>
       </c>
       <c r="G17">
-        <v>0.0007633441622641058</v>
+        <v>0.1617055425978577</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1316066965074754</v>
       </c>
       <c r="I17">
-        <v>0.1280275412085778</v>
+        <v>0.0192872926231189</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1708480185728476</v>
       </c>
       <c r="K17">
-        <v>4.161980371451307</v>
+        <v>0.3409672846889134</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.615955947364256</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07300760834631603</v>
       </c>
       <c r="O17">
-        <v>1.727704572080029</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1438164728737554</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6505465268856199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4170793815231661</v>
+        <v>0.7737213868913102</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05494203755068838</v>
+        <v>0.1279364217540433</v>
       </c>
       <c r="E18">
-        <v>2.094292706768101</v>
+        <v>0.2167899555160453</v>
       </c>
       <c r="F18">
-        <v>0.6458787194232229</v>
+        <v>0.3073957336136388</v>
       </c>
       <c r="G18">
-        <v>0.0007645391263500175</v>
+        <v>0.1837590917203329</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07884690638651648</v>
       </c>
       <c r="I18">
-        <v>0.1314387901180862</v>
+        <v>0.01921202400564592</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1840694350127379</v>
       </c>
       <c r="K18">
-        <v>4.060043675964664</v>
+        <v>0.344651747032569</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.419280490555138</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1069419532270146</v>
       </c>
       <c r="O18">
-        <v>1.693230471191924</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1658123172545665</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.7249090194425918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4135121688031091</v>
+        <v>0.8313836570625881</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05454194224805775</v>
+        <v>0.119008490297702</v>
       </c>
       <c r="E19">
-        <v>2.073770669399821</v>
+        <v>0.1870165987064851</v>
       </c>
       <c r="F19">
-        <v>0.6409982807349621</v>
+        <v>0.340742144796998</v>
       </c>
       <c r="G19">
-        <v>0.0007649446488933549</v>
+        <v>0.2141283771879685</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03308414324133224</v>
       </c>
       <c r="I19">
-        <v>0.1326069453686474</v>
+        <v>0.01896137306325585</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2007615151949267</v>
       </c>
       <c r="K19">
-        <v>4.02556606609869</v>
+        <v>0.3556825742047813</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.237641393809554</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1633861472524956</v>
       </c>
       <c r="O19">
-        <v>1.681691731842562</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.1998514093238093</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.8242136591056237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4295710517394582</v>
+        <v>0.9655268434372033</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05634284424050406</v>
+        <v>0.1117779675462884</v>
       </c>
       <c r="E20">
-        <v>2.166517800841646</v>
+        <v>0.1751184057115802</v>
       </c>
       <c r="F20">
-        <v>0.6631242282018945</v>
+        <v>0.4036931835588717</v>
       </c>
       <c r="G20">
-        <v>0.0007631234338707493</v>
+        <v>0.269183245387552</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.004950643757651196</v>
       </c>
       <c r="I20">
-        <v>0.1274025030487977</v>
+        <v>0.01713699475400166</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2278832719585111</v>
       </c>
       <c r="K20">
-        <v>4.180864411127516</v>
+        <v>0.384649122395885</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.078215722808949</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2783569789380493</v>
       </c>
       <c r="O20">
-        <v>1.734149478130945</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2672197684853082</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9978142756295654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4836492150158165</v>
+        <v>1.092065524053879</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.06240336902560983</v>
+        <v>0.1237468211716362</v>
       </c>
       <c r="E21">
-        <v>2.485804630020382</v>
+        <v>0.1791471903631533</v>
       </c>
       <c r="F21">
-        <v>0.7405258340381238</v>
+        <v>0.4387304906572709</v>
       </c>
       <c r="G21">
-        <v>0.0007570637793351587</v>
+        <v>0.2911999114027424</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.003198563491195627</v>
       </c>
       <c r="I21">
-        <v>0.1108656839383562</v>
+        <v>0.0144762242861356</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2330946452151039</v>
       </c>
       <c r="K21">
-        <v>4.705526109932805</v>
+        <v>0.374855416736164</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.283779763834303</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3222260229759257</v>
       </c>
       <c r="O21">
-        <v>1.920360884311265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3050308752203605</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.055730221730784</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5191054691954662</v>
+        <v>1.17369092904238</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06637447144291286</v>
+        <v>0.1318647397549739</v>
       </c>
       <c r="E22">
-        <v>2.701172849430208</v>
+        <v>0.1816487933228611</v>
       </c>
       <c r="F22">
-        <v>0.7936539032136238</v>
+        <v>0.4608320051021408</v>
       </c>
       <c r="G22">
-        <v>0.0007531411613146703</v>
+        <v>0.3047789531391061</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002381072153558428</v>
       </c>
       <c r="I22">
-        <v>0.1008070398696628</v>
+        <v>0.01260120377053031</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2361247282486971</v>
       </c>
       <c r="K22">
-        <v>5.051008522283269</v>
+        <v>0.3678753126454133</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.422420230684594</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3441292252208257</v>
       </c>
       <c r="O22">
-        <v>2.050322179052387</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3270406159072365</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.09107066716561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.500169994468294</v>
+        <v>1.134107107152516</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.06425388413455835</v>
+        <v>0.1272990654119326</v>
       </c>
       <c r="E23">
-        <v>2.585546548562803</v>
+        <v>0.1804662016755687</v>
       </c>
       <c r="F23">
-        <v>0.7650482639933784</v>
+        <v>0.4502111468336452</v>
       </c>
       <c r="G23">
-        <v>0.0007552317301911622</v>
+        <v>0.298646135542036</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.002794953985261917</v>
       </c>
       <c r="I23">
-        <v>0.1061041992302636</v>
+        <v>0.01321782939454152</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.235091715089581</v>
       </c>
       <c r="K23">
-        <v>4.866351596479262</v>
+        <v>0.3728464812756229</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.342043732745879</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3312832167860478</v>
       </c>
       <c r="O23">
-        <v>1.980146588865836</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3155434293768096</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.075794879160156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4286887665305414</v>
+        <v>0.9771711622580881</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05624391763897307</v>
+        <v>0.1104259043732583</v>
       </c>
       <c r="E24">
-        <v>2.161398039792203</v>
+        <v>0.1757244730958482</v>
       </c>
       <c r="F24">
-        <v>0.6618982856508069</v>
+        <v>0.4092594413132886</v>
       </c>
       <c r="G24">
-        <v>0.0007632232072218442</v>
+        <v>0.2746074357731132</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.004722387170704945</v>
       </c>
       <c r="I24">
-        <v>0.127684835774089</v>
+        <v>0.01649822639782528</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2308321787778169</v>
       </c>
       <c r="K24">
-        <v>4.172326383800339</v>
+        <v>0.3901536081168437</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.048880634625931</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2847382038294768</v>
       </c>
       <c r="O24">
-        <v>1.731233292416221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2715817014881736</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.015481552355695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3519334545920287</v>
+        <v>0.8068149621233545</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0476294824382677</v>
+        <v>0.09228123524045628</v>
       </c>
       <c r="E25">
-        <v>1.726587409258599</v>
+        <v>0.1705406833627581</v>
       </c>
       <c r="F25">
-        <v>0.559925032570014</v>
+        <v>0.3675847558678527</v>
       </c>
       <c r="G25">
-        <v>0.000772045977161246</v>
+        <v>0.250784303228933</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0074971673365202</v>
       </c>
       <c r="I25">
-        <v>0.1539182357968976</v>
+        <v>0.02079358340287207</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2275400579867224</v>
       </c>
       <c r="K25">
-        <v>3.432077643549746</v>
+        <v>0.4099657843618623</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.733915306766278</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2349346723647443</v>
       </c>
       <c r="O25">
-        <v>1.492988035023672</v>
+        <v>0.2241193192856237</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9575902992665135</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6898622639140797</v>
+        <v>0.6584481613820969</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07839716282787634</v>
+        <v>0.07926129406573068</v>
       </c>
       <c r="E2">
-        <v>0.1670932400694378</v>
+        <v>0.1484196773826115</v>
       </c>
       <c r="F2">
-        <v>0.3418153055437756</v>
+        <v>0.3335476245787206</v>
       </c>
       <c r="G2">
-        <v>0.2377004031218632</v>
+        <v>0.2122577356867836</v>
       </c>
       <c r="H2">
-        <v>0.01005296449838224</v>
+        <v>0.007429268774234582</v>
       </c>
       <c r="I2">
-        <v>0.02363686423770917</v>
+        <v>0.01639376829386752</v>
       </c>
       <c r="J2">
-        <v>0.2276733867259608</v>
+        <v>0.2613398030932572</v>
       </c>
       <c r="K2">
-        <v>0.4288508753028299</v>
+        <v>0.3758295790968553</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1517888922316057</v>
       </c>
       <c r="M2">
-        <v>1.487715301914022</v>
+        <v>0.1311780465814838</v>
       </c>
       <c r="N2">
-        <v>0.1958077176303448</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1896951296056102</v>
+        <v>1.491113335604865</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2053631909290772</v>
       </c>
       <c r="Q2">
-        <v>0.9297445039516248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1886655916290856</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.9018352681082575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6044687044368686</v>
+        <v>0.5793197740193818</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06930726174900315</v>
+        <v>0.06971330317907132</v>
       </c>
       <c r="E3">
-        <v>0.1644309210863407</v>
+        <v>0.1459017079636203</v>
       </c>
       <c r="F3">
-        <v>0.32363901336727</v>
+        <v>0.3170712960435793</v>
       </c>
       <c r="G3">
-        <v>0.2280446147025046</v>
+        <v>0.2041853814696282</v>
       </c>
       <c r="H3">
-        <v>0.01211474857404771</v>
+        <v>0.009084337279771149</v>
       </c>
       <c r="I3">
-        <v>0.02639572177327176</v>
+        <v>0.01835529331436492</v>
       </c>
       <c r="J3">
-        <v>0.2274703466686034</v>
+        <v>0.2602386661090321</v>
       </c>
       <c r="K3">
-        <v>0.4403145903543404</v>
+        <v>0.3870656777401873</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1574160926037589</v>
       </c>
       <c r="M3">
-        <v>1.329748779301639</v>
+        <v>0.1358194870017977</v>
       </c>
       <c r="N3">
-        <v>0.1710079817445092</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1659592939613219</v>
+        <v>1.321846330996095</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1787303036281997</v>
       </c>
       <c r="Q3">
-        <v>0.908572520187775</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1652632147138995</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.8853255554033979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.55155143599643</v>
+        <v>0.5301008641602607</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06373253800298073</v>
+        <v>0.06386653588932489</v>
       </c>
       <c r="E4">
-        <v>0.1627450683959482</v>
+        <v>0.1443264897693362</v>
       </c>
       <c r="F4">
-        <v>0.3128952259507471</v>
+        <v>0.3073152322909039</v>
       </c>
       <c r="G4">
-        <v>0.2224567543533382</v>
+        <v>0.1996003845770744</v>
       </c>
       <c r="H4">
-        <v>0.01352860452288177</v>
+        <v>0.010225692198458</v>
       </c>
       <c r="I4">
-        <v>0.02826594329352883</v>
+        <v>0.01970233986636671</v>
       </c>
       <c r="J4">
-        <v>0.2275918312587777</v>
+        <v>0.2596761382860677</v>
       </c>
       <c r="K4">
-        <v>0.4475578978258454</v>
+        <v>0.3941386485336533</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1611234366249708</v>
       </c>
       <c r="M4">
-        <v>1.233044955410577</v>
+        <v>0.1390502841658061</v>
       </c>
       <c r="N4">
-        <v>0.1558840876955045</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1513404846104685</v>
+        <v>1.218467583801527</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1625295002861051</v>
       </c>
       <c r="Q4">
-        <v>0.8968034194546703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1508355815661488</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8762517674000065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5288941015803914</v>
+        <v>0.5090056473828781</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.06151744059491193</v>
+        <v>0.06153815952930586</v>
       </c>
       <c r="E5">
-        <v>0.1619885172959745</v>
+        <v>0.1436321497922208</v>
       </c>
       <c r="F5">
-        <v>0.3082964493791067</v>
+        <v>0.3031356311920774</v>
       </c>
       <c r="G5">
-        <v>0.2199564148582738</v>
+        <v>0.1975488131471579</v>
       </c>
       <c r="H5">
-        <v>0.0141456093297788</v>
+        <v>0.01072527226989396</v>
       </c>
       <c r="I5">
-        <v>0.02917088651911337</v>
+        <v>0.02039486343748464</v>
       </c>
       <c r="J5">
-        <v>0.2275372402179059</v>
+        <v>0.2593211997852407</v>
       </c>
       <c r="K5">
-        <v>0.4501879916500471</v>
+        <v>0.3967458079648729</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.162506341218041</v>
       </c>
       <c r="M5">
-        <v>1.195212864384644</v>
+        <v>0.1404154333796308</v>
       </c>
       <c r="N5">
-        <v>0.150024905557963</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1453105580421372</v>
+        <v>1.177864304944734</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1562211263616646</v>
       </c>
       <c r="Q5">
-        <v>0.8913143280540368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1448856132022946</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.8719159302778081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5239350879789697</v>
+        <v>0.5044171792902432</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.06121782376727936</v>
+        <v>0.06121404739574388</v>
       </c>
       <c r="E6">
-        <v>0.1617947816759536</v>
+        <v>0.1434633921755026</v>
       </c>
       <c r="F6">
-        <v>0.307147155329524</v>
+        <v>0.3020925403995776</v>
       </c>
       <c r="G6">
-        <v>0.2191738424684715</v>
+        <v>0.1968820724153204</v>
       </c>
       <c r="H6">
-        <v>0.01425606195889804</v>
+        <v>0.01081492048166147</v>
       </c>
       <c r="I6">
-        <v>0.02945250827261248</v>
+        <v>0.02065331145610294</v>
       </c>
       <c r="J6">
-        <v>0.227331153211189</v>
+        <v>0.2590764006890396</v>
       </c>
       <c r="K6">
-        <v>0.4501754649054561</v>
+        <v>0.3967954536190543</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1625085205632981</v>
       </c>
       <c r="M6">
-        <v>1.190790941667672</v>
+        <v>0.1405899719385735</v>
       </c>
       <c r="N6">
-        <v>0.1493965367574219</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1442339677712923</v>
+        <v>1.172841282744059</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1554911631203879</v>
       </c>
       <c r="Q6">
-        <v>0.8892113696237374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1438286767687593</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8701200325702985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5479870959478319</v>
+        <v>0.5272398520596937</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06388942504435136</v>
+        <v>0.0641453401062293</v>
       </c>
       <c r="E7">
-        <v>0.1625535767943583</v>
+        <v>0.144152276241491</v>
       </c>
       <c r="F7">
-        <v>0.3117646833206749</v>
+        <v>0.3055777799649206</v>
       </c>
       <c r="G7">
-        <v>0.2214076674561269</v>
+        <v>0.2007579300968771</v>
       </c>
       <c r="H7">
-        <v>0.01355194939485511</v>
+        <v>0.01024884247850675</v>
       </c>
       <c r="I7">
-        <v>0.02861232186699247</v>
+        <v>0.020082829689958</v>
       </c>
       <c r="J7">
-        <v>0.2270448208098728</v>
+        <v>0.2558703377756117</v>
       </c>
       <c r="K7">
-        <v>0.4463650416100524</v>
+        <v>0.3929402991887097</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1604304840471862</v>
       </c>
       <c r="M7">
-        <v>1.237623872878032</v>
+        <v>0.138855242311422</v>
       </c>
       <c r="N7">
-        <v>0.1567436709382761</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1510548619556396</v>
+        <v>1.221908727874364</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1631978461815038</v>
       </c>
       <c r="Q7">
-        <v>0.8934331033043321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1505913229453455</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8710703049216733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6561709645373242</v>
+        <v>0.6286111777920098</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07551125411055892</v>
+        <v>0.07666492754266585</v>
       </c>
       <c r="E8">
-        <v>0.1659607138515787</v>
+        <v>0.1473169289291436</v>
       </c>
       <c r="F8">
-        <v>0.3340519208153552</v>
+        <v>0.3241491811296058</v>
       </c>
       <c r="G8">
-        <v>0.232962764474884</v>
+        <v>0.2152101492650758</v>
       </c>
       <c r="H8">
-        <v>0.01074897124117517</v>
+        <v>0.00799755624517641</v>
       </c>
       <c r="I8">
-        <v>0.02495509085039771</v>
+        <v>0.01749881885437521</v>
       </c>
       <c r="J8">
-        <v>0.2268371907600795</v>
+        <v>0.2496075700359981</v>
       </c>
       <c r="K8">
-        <v>0.431179682908807</v>
+        <v>0.3777681588129962</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1527099773046654</v>
       </c>
       <c r="M8">
-        <v>1.4400048659856</v>
+        <v>0.132242301615292</v>
       </c>
       <c r="N8">
-        <v>0.1884847878319817</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1812472981882109</v>
+        <v>1.436580995575611</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1969315533264933</v>
       </c>
       <c r="Q8">
-        <v>0.9178562834854063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1804339778507149</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.8849296710684911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8703070564247355</v>
+        <v>0.8262835001856388</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09804305800216895</v>
+        <v>0.1005499945637851</v>
       </c>
       <c r="E9">
-        <v>0.1725652831415163</v>
+        <v>0.1536208602695741</v>
       </c>
       <c r="F9">
-        <v>0.3832054953712714</v>
+        <v>0.3679648762427519</v>
       </c>
       <c r="G9">
-        <v>0.2603390542669288</v>
+        <v>0.2406718865937165</v>
       </c>
       <c r="H9">
-        <v>0.006459058770243997</v>
+        <v>0.004591088185483205</v>
       </c>
       <c r="I9">
-        <v>0.01871239161893978</v>
+        <v>0.01301409174905643</v>
       </c>
       <c r="J9">
-        <v>0.2294339217308448</v>
+        <v>0.2507165440137129</v>
       </c>
       <c r="K9">
-        <v>0.4051758641789558</v>
+        <v>0.3518614544857055</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1408436767766537</v>
       </c>
       <c r="M9">
-        <v>1.830437577926688</v>
+        <v>0.1228526965778567</v>
       </c>
       <c r="N9">
-        <v>0.2499469432608379</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2404907179237128</v>
+        <v>1.856399828638274</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2632105394477264</v>
       </c>
       <c r="Q9">
-        <v>0.9819808306376387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2387650648101385</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.9341709256933086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.013775448318398</v>
+        <v>0.961842801041513</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1158018233502105</v>
+        <v>0.1200837495281633</v>
       </c>
       <c r="E10">
-        <v>0.1765575786731808</v>
+        <v>0.1579473430791829</v>
       </c>
       <c r="F10">
-        <v>0.4159660529618208</v>
+        <v>0.3932730678036904</v>
       </c>
       <c r="G10">
-        <v>0.2769996224889937</v>
+        <v>0.2696092791783045</v>
       </c>
       <c r="H10">
-        <v>0.004470915345828441</v>
+        <v>0.00310659931147228</v>
       </c>
       <c r="I10">
-        <v>0.01533333177588858</v>
+        <v>0.01075051495225932</v>
       </c>
       <c r="J10">
-        <v>0.2298252385380124</v>
+        <v>0.232601770100807</v>
       </c>
       <c r="K10">
-        <v>0.3822377049827601</v>
+        <v>0.3296109352382128</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1320307969222867</v>
       </c>
       <c r="M10">
-        <v>2.143037470524831</v>
+        <v>0.1160236571992002</v>
       </c>
       <c r="N10">
-        <v>0.2851475775739516</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2779238600638223</v>
+        <v>2.184021782091719</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3004729656315135</v>
       </c>
       <c r="Q10">
-        <v>1.018564045529033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2757494798958646</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.9496176187661405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9887444462978578</v>
+        <v>0.958916769845473</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1335219874234213</v>
+        <v>0.139139203108769</v>
       </c>
       <c r="E11">
-        <v>0.1867268628205618</v>
+        <v>0.1705473424289661</v>
       </c>
       <c r="F11">
-        <v>0.3841450265177286</v>
+        <v>0.3588299054627697</v>
       </c>
       <c r="G11">
-        <v>0.2412340249965155</v>
+        <v>0.2662832202242384</v>
       </c>
       <c r="H11">
-        <v>0.02324644554505539</v>
+        <v>0.0218951537393508</v>
       </c>
       <c r="I11">
-        <v>0.01526595120633445</v>
+        <v>0.01102199544639415</v>
       </c>
       <c r="J11">
-        <v>0.2073251564932121</v>
+        <v>0.1852295511464206</v>
       </c>
       <c r="K11">
-        <v>0.3415898350097777</v>
+        <v>0.2996225454175607</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1228566574138694</v>
       </c>
       <c r="M11">
-        <v>2.484797232982032</v>
+        <v>0.1036306460347145</v>
       </c>
       <c r="N11">
-        <v>0.2131782841529599</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2455552986354022</v>
+        <v>2.49282685543082</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2206624895141402</v>
       </c>
       <c r="Q11">
-        <v>0.8958324018466186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2446821571128446</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.8220950325919745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9427913016382092</v>
+        <v>0.9309636681877009</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1450107171805683</v>
+        <v>0.1508321576410196</v>
       </c>
       <c r="E12">
-        <v>0.2122838050324098</v>
+        <v>0.1951268248044933</v>
       </c>
       <c r="F12">
-        <v>0.3525579925966014</v>
+        <v>0.3290160952626877</v>
       </c>
       <c r="G12">
-        <v>0.2105603775075835</v>
+        <v>0.2505383008809474</v>
       </c>
       <c r="H12">
-        <v>0.0622094316859787</v>
+        <v>0.06082472908932601</v>
       </c>
       <c r="I12">
-        <v>0.01525250469086892</v>
+        <v>0.01102759485418048</v>
       </c>
       <c r="J12">
-        <v>0.1896430839139072</v>
+        <v>0.1635948551962443</v>
       </c>
       <c r="K12">
-        <v>0.3240672354035166</v>
+        <v>0.2884444299433744</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1207922788361486</v>
       </c>
       <c r="M12">
-        <v>2.712708187041244</v>
+        <v>0.09769914078252495</v>
       </c>
       <c r="N12">
-        <v>0.1531525905112829</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2126157621010094</v>
+        <v>2.688833171162344</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1555131778490164</v>
       </c>
       <c r="Q12">
-        <v>0.7938632920328388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2127031563517612</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.7275156222399488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.873235713259902</v>
+        <v>0.8768190321658835</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.152545829138802</v>
+        <v>0.1571295160205182</v>
       </c>
       <c r="E13">
-        <v>0.2501434446658415</v>
+        <v>0.2298885145446619</v>
       </c>
       <c r="F13">
-        <v>0.3174707614087993</v>
+        <v>0.3005867603827994</v>
       </c>
       <c r="G13">
-        <v>0.1802701255997192</v>
+        <v>0.2181100358134032</v>
       </c>
       <c r="H13">
-        <v>0.1183779313914499</v>
+        <v>0.116907022950997</v>
       </c>
       <c r="I13">
-        <v>0.01575280506836751</v>
+        <v>0.01135998640713787</v>
       </c>
       <c r="J13">
-        <v>0.1736767762763094</v>
+        <v>0.1576284727785158</v>
       </c>
       <c r="K13">
-        <v>0.3208531077754886</v>
+        <v>0.2881511440625717</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1220369964899559</v>
       </c>
       <c r="M13">
-        <v>2.871847315375874</v>
+        <v>0.0960808366290673</v>
       </c>
       <c r="N13">
-        <v>0.1005826180062428</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.177211513052022</v>
+        <v>2.817148421885832</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.09962214036079331</v>
       </c>
       <c r="Q13">
-        <v>0.6962116147346649</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.1780277608643885</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6501346624365567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8134283988403297</v>
+        <v>0.8266000713925337</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1561049831076389</v>
+        <v>0.1591285491693526</v>
       </c>
       <c r="E14">
-        <v>0.2842963251548056</v>
+        <v>0.2606879725583511</v>
       </c>
       <c r="F14">
-        <v>0.2913120987356166</v>
+        <v>0.2809058568169718</v>
       </c>
       <c r="G14">
-        <v>0.1593424222298978</v>
+        <v>0.1892737057705034</v>
       </c>
       <c r="H14">
-        <v>0.168060971094917</v>
+        <v>0.16650673250642</v>
       </c>
       <c r="I14">
-        <v>0.01643862433711174</v>
+        <v>0.01185629307514002</v>
       </c>
       <c r="J14">
-        <v>0.1632869639584982</v>
+        <v>0.1587819651052591</v>
       </c>
       <c r="K14">
-        <v>0.3261935050486198</v>
+        <v>0.2930710388021858</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1241738853375445</v>
       </c>
       <c r="M14">
-        <v>2.954316479166124</v>
+        <v>0.09728689853742001</v>
       </c>
       <c r="N14">
-        <v>0.06892382576516098</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1517663300913235</v>
+        <v>2.878181081373071</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.06654189765524876</v>
       </c>
       <c r="Q14">
-        <v>0.6300460987664138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1529766318233108</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.6023840852788425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7927716147545425</v>
+        <v>0.8079287527990857</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.156123785557881</v>
+        <v>0.1584825222209503</v>
       </c>
       <c r="E15">
-        <v>0.2931929386992564</v>
+        <v>0.2686840688091259</v>
       </c>
       <c r="F15">
-        <v>0.2838085194026263</v>
+        <v>0.2758209129258944</v>
       </c>
       <c r="G15">
-        <v>0.1538652230028674</v>
+        <v>0.1793741537049982</v>
       </c>
       <c r="H15">
-        <v>0.1807277606102105</v>
+        <v>0.1791322938494204</v>
       </c>
       <c r="I15">
-        <v>0.01687623407353467</v>
+        <v>0.01222153491871047</v>
       </c>
       <c r="J15">
-        <v>0.1608940271139332</v>
+        <v>0.1613463986435555</v>
       </c>
       <c r="K15">
-        <v>0.3292644900020658</v>
+        <v>0.2954740435528471</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1248362162888661</v>
       </c>
       <c r="M15">
-        <v>2.960095496270725</v>
+        <v>0.09823801300661295</v>
       </c>
       <c r="N15">
-        <v>0.06179107289484875</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1447962070721864</v>
+        <v>2.879186098394484</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.05920577870077892</v>
       </c>
       <c r="Q15">
-        <v>0.6133937735814925</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1460781246693692</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5923004784695109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7452511502490609</v>
+        <v>0.7571116585536117</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1467559059077388</v>
+        <v>0.1469577932263206</v>
       </c>
       <c r="E16">
-        <v>0.2823264047160698</v>
+        <v>0.2590615006781221</v>
       </c>
       <c r="F16">
-        <v>0.2760236303860779</v>
+        <v>0.2750515759129684</v>
       </c>
       <c r="G16">
-        <v>0.1520586131608894</v>
+        <v>0.157114317575072</v>
       </c>
       <c r="H16">
-        <v>0.1688766854526591</v>
+        <v>0.1670480213801824</v>
       </c>
       <c r="I16">
-        <v>0.01842772425421924</v>
+        <v>0.0133337888970102</v>
       </c>
       <c r="J16">
-        <v>0.1634022454333746</v>
+        <v>0.1843984376755756</v>
       </c>
       <c r="K16">
-        <v>0.3378555647946602</v>
+        <v>0.3017881355268646</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1245244492154551</v>
       </c>
       <c r="M16">
-        <v>2.789851602385767</v>
+        <v>0.1024181084022375</v>
       </c>
       <c r="N16">
-        <v>0.05921267780263406</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1368024965328836</v>
+        <v>2.716686425101443</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.05721440469001493</v>
       </c>
       <c r="Q16">
-        <v>0.6146264073230157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1379179922355718</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.6116901788956568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7400866539672677</v>
+        <v>0.7450065817902782</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1377073047421504</v>
+        <v>0.1374404357494967</v>
       </c>
       <c r="E17">
-        <v>0.254566060962123</v>
+        <v>0.2339557323486474</v>
       </c>
       <c r="F17">
-        <v>0.283947999812888</v>
+        <v>0.2842848645958966</v>
       </c>
       <c r="G17">
-        <v>0.1617055425978577</v>
+        <v>0.1572174384350404</v>
       </c>
       <c r="H17">
-        <v>0.1316066965074754</v>
+        <v>0.129641617824575</v>
       </c>
       <c r="I17">
-        <v>0.0192872926231189</v>
+        <v>0.01395917749360986</v>
       </c>
       <c r="J17">
-        <v>0.1708480185728476</v>
+        <v>0.2010961123200588</v>
       </c>
       <c r="K17">
-        <v>0.3409672846889134</v>
+        <v>0.3043942169285554</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1238693626832443</v>
       </c>
       <c r="M17">
-        <v>2.615955947364256</v>
+        <v>0.1046463384226315</v>
       </c>
       <c r="N17">
-        <v>0.07300760834631603</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1438164728737554</v>
+        <v>2.558750424670421</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.07205941618865097</v>
       </c>
       <c r="Q17">
-        <v>0.6505465268856199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1446364345294562</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.6507073377479458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7737213868913102</v>
+        <v>0.766495735473967</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1279364217540433</v>
+        <v>0.1281545828871344</v>
       </c>
       <c r="E18">
-        <v>0.2167899555160453</v>
+        <v>0.199424221608222</v>
       </c>
       <c r="F18">
-        <v>0.3073957336136388</v>
+        <v>0.3054860733415907</v>
       </c>
       <c r="G18">
-        <v>0.1837590917203329</v>
+        <v>0.1727788397681991</v>
       </c>
       <c r="H18">
-        <v>0.07884690638651648</v>
+        <v>0.07685006469351663</v>
       </c>
       <c r="I18">
-        <v>0.01921202400564592</v>
+        <v>0.01377839493193989</v>
       </c>
       <c r="J18">
-        <v>0.1840694350127379</v>
+        <v>0.2172810287304543</v>
       </c>
       <c r="K18">
-        <v>0.344651747032569</v>
+        <v>0.3074449811373237</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1241832150673958</v>
       </c>
       <c r="M18">
-        <v>2.419280490555138</v>
+        <v>0.1064758003928505</v>
       </c>
       <c r="N18">
-        <v>0.1069419532270146</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1658123172545665</v>
+        <v>2.387696559623208</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1083696643953829</v>
       </c>
       <c r="Q18">
-        <v>0.7249090194425918</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.166085200665826</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.7184222494819323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8313836570625881</v>
+        <v>0.8083403773163695</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.119008490297702</v>
+        <v>0.1201599872260459</v>
       </c>
       <c r="E19">
-        <v>0.1870165987064851</v>
+        <v>0.1712231590713387</v>
       </c>
       <c r="F19">
-        <v>0.340742144796998</v>
+        <v>0.3342885816653407</v>
       </c>
       <c r="G19">
-        <v>0.2141283771879685</v>
+        <v>0.1976991316183501</v>
       </c>
       <c r="H19">
-        <v>0.03308414324133224</v>
+        <v>0.0311809262114906</v>
       </c>
       <c r="I19">
-        <v>0.01896137306325585</v>
+        <v>0.01365582327804571</v>
       </c>
       <c r="J19">
-        <v>0.2007615151949267</v>
+        <v>0.2330383592776215</v>
       </c>
       <c r="K19">
-        <v>0.3556825742047813</v>
+        <v>0.3152887656151286</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1268735504254389</v>
       </c>
       <c r="M19">
-        <v>2.237641393809554</v>
+        <v>0.1096557226927364</v>
       </c>
       <c r="N19">
-        <v>0.1633861472524956</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.1998514093238093</v>
+        <v>2.235093318819139</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1690205548914676</v>
       </c>
       <c r="Q19">
-        <v>0.8242136591056237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.1993289040059665</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8041882951717696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9655268434372033</v>
+        <v>0.9156137485156819</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1117779675462884</v>
+        <v>0.1150083231082277</v>
       </c>
       <c r="E20">
-        <v>0.1751184057115802</v>
+        <v>0.1567376270999192</v>
       </c>
       <c r="F20">
-        <v>0.4036931835588717</v>
+        <v>0.3859374221191487</v>
       </c>
       <c r="G20">
-        <v>0.269183245387552</v>
+        <v>0.2511165679892358</v>
       </c>
       <c r="H20">
-        <v>0.004950643757651196</v>
+        <v>0.003450324760548185</v>
       </c>
       <c r="I20">
-        <v>0.01713699475400166</v>
+        <v>0.01239879984340408</v>
       </c>
       <c r="J20">
-        <v>0.2278832719585111</v>
+        <v>0.2463534468028357</v>
       </c>
       <c r="K20">
-        <v>0.384649122395885</v>
+        <v>0.3332880979038784</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1334581466082572</v>
       </c>
       <c r="M20">
-        <v>2.078215722808949</v>
+        <v>0.1169171988094106</v>
       </c>
       <c r="N20">
-        <v>0.2783569789380493</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2672197684853082</v>
+        <v>2.116590112107644</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2932973422880707</v>
       </c>
       <c r="Q20">
-        <v>0.9978142756295654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2651540528389944</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.9433482290373121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.092065524053879</v>
+        <v>1.03889752666646</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1237468211716362</v>
+        <v>0.1314059349183054</v>
       </c>
       <c r="E21">
-        <v>0.1791471903631533</v>
+        <v>0.1597469767755062</v>
       </c>
       <c r="F21">
-        <v>0.4387304906572709</v>
+        <v>0.4002430601010758</v>
       </c>
       <c r="G21">
-        <v>0.2911999114027424</v>
+        <v>0.3250453434486644</v>
       </c>
       <c r="H21">
-        <v>0.003198563491195627</v>
+        <v>0.002112714362953461</v>
       </c>
       <c r="I21">
-        <v>0.0144762242861356</v>
+        <v>0.01059592019151179</v>
       </c>
       <c r="J21">
-        <v>0.2330946452151039</v>
+        <v>0.1887155358468959</v>
       </c>
       <c r="K21">
-        <v>0.374855416736164</v>
+        <v>0.3189051844947848</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1282491870409252</v>
       </c>
       <c r="M21">
-        <v>2.283779763834303</v>
+        <v>0.112896835266417</v>
       </c>
       <c r="N21">
-        <v>0.3222260229759257</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3050308752203605</v>
+        <v>2.325400041188175</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3381572067443841</v>
       </c>
       <c r="Q21">
-        <v>1.055730221730784</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3027723170821233</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9404873590333693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.17369092904238</v>
+        <v>1.119830526162559</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1318647397549739</v>
+        <v>0.1427085292307169</v>
       </c>
       <c r="E22">
-        <v>0.1816487933228611</v>
+        <v>0.1618209208863117</v>
       </c>
       <c r="F22">
-        <v>0.4608320051021408</v>
+        <v>0.4077943292553385</v>
       </c>
       <c r="G22">
-        <v>0.3047789531391061</v>
+        <v>0.3802645891980632</v>
       </c>
       <c r="H22">
-        <v>0.002381072153558428</v>
+        <v>0.001517650245174806</v>
       </c>
       <c r="I22">
-        <v>0.01260120377053031</v>
+        <v>0.009162341358038617</v>
       </c>
       <c r="J22">
-        <v>0.2361247282486971</v>
+        <v>0.1579102751315986</v>
       </c>
       <c r="K22">
-        <v>0.3678753126454133</v>
+        <v>0.3090957472498186</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.124983267727337</v>
       </c>
       <c r="M22">
-        <v>2.422420230684594</v>
+        <v>0.1102513735920425</v>
       </c>
       <c r="N22">
-        <v>0.3441292252208257</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3270406159072365</v>
+        <v>2.463854387454319</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3600942152727953</v>
       </c>
       <c r="Q22">
-        <v>1.09107066716561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3247384975448497</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9334645228242664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.134107107152516</v>
+        <v>1.079167452241819</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1272990654119326</v>
+        <v>0.1360388001577633</v>
       </c>
       <c r="E23">
-        <v>0.1804662016755687</v>
+        <v>0.1608318079588729</v>
       </c>
       <c r="F23">
-        <v>0.4502111468336452</v>
+        <v>0.4066682391008456</v>
       </c>
       <c r="G23">
-        <v>0.298646135542036</v>
+        <v>0.3449671663670415</v>
       </c>
       <c r="H23">
-        <v>0.002794953985261917</v>
+        <v>0.001814819498493936</v>
       </c>
       <c r="I23">
-        <v>0.01321782939454152</v>
+        <v>0.009488069474353544</v>
       </c>
       <c r="J23">
-        <v>0.235091715089581</v>
+        <v>0.1786124738237191</v>
       </c>
       <c r="K23">
-        <v>0.3728464812756229</v>
+        <v>0.3155366334742897</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1270352074210814</v>
       </c>
       <c r="M23">
-        <v>2.342043732745879</v>
+        <v>0.1122211499917132</v>
       </c>
       <c r="N23">
-        <v>0.3312832167860478</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3155434293768096</v>
+        <v>2.385947755231484</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3476276847850244</v>
       </c>
       <c r="Q23">
-        <v>1.075794879160156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3131809354215207</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.945747439538934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9771711622580881</v>
+        <v>0.9247323818030111</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1104259043732583</v>
+        <v>0.1137340248113645</v>
       </c>
       <c r="E24">
-        <v>0.1757244730958482</v>
+        <v>0.1568070753479729</v>
       </c>
       <c r="F24">
-        <v>0.4092594413132886</v>
+        <v>0.3908208182256061</v>
       </c>
       <c r="G24">
-        <v>0.2746074357731132</v>
+        <v>0.2553506282090083</v>
       </c>
       <c r="H24">
-        <v>0.004722387170704945</v>
+        <v>0.003242095928740862</v>
       </c>
       <c r="I24">
-        <v>0.01649822639782528</v>
+        <v>0.01168407058241883</v>
       </c>
       <c r="J24">
-        <v>0.2308321787778169</v>
+        <v>0.2493986811721172</v>
       </c>
       <c r="K24">
-        <v>0.3901536081168437</v>
+        <v>0.3372142644176179</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1348512332380611</v>
       </c>
       <c r="M24">
-        <v>2.048880634625931</v>
+        <v>0.1184567364463112</v>
       </c>
       <c r="N24">
-        <v>0.2847382038294768</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2715817014881736</v>
+        <v>2.090325364105496</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3005479261544508</v>
       </c>
       <c r="Q24">
-        <v>1.015481552355695</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2693653801386233</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.9587587549316083</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8068149621233545</v>
+        <v>0.7674817913649576</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09228123524045628</v>
+        <v>0.09418260974549497</v>
       </c>
       <c r="E25">
-        <v>0.1705406833627581</v>
+        <v>0.1518095567027016</v>
       </c>
       <c r="F25">
-        <v>0.3675847558678527</v>
+        <v>0.3550637260521938</v>
       </c>
       <c r="G25">
-        <v>0.250784303228933</v>
+        <v>0.2287631979870923</v>
       </c>
       <c r="H25">
-        <v>0.0074971673365202</v>
+        <v>0.005404587471903893</v>
       </c>
       <c r="I25">
-        <v>0.02079358340287207</v>
+        <v>0.0147141061547611</v>
       </c>
       <c r="J25">
-        <v>0.2275400579867224</v>
+        <v>0.2539344084870265</v>
       </c>
       <c r="K25">
-        <v>0.4099657843618623</v>
+        <v>0.3573546911006904</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1432511975745925</v>
       </c>
       <c r="M25">
-        <v>1.733915306766278</v>
+        <v>0.1246358738030882</v>
       </c>
       <c r="N25">
-        <v>0.2349346723647443</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2241193192856237</v>
+        <v>1.752100438235317</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2468945177198663</v>
       </c>
       <c r="Q25">
-        <v>0.9575902992665135</v>
+        <v>0.2226558541898349</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.917663862788956</v>
       </c>
     </row>
   </sheetData>
